--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1444849.576951038</v>
+        <v>1444091.634605968</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2915474.171862235</v>
+        <v>2915474.171862239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736557</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9907573.526379904</v>
+        <v>9907573.526379902</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.4968410836276</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>275.5081580413093</v>
       </c>
       <c r="D11" t="n">
         <v>266.4894620858373</v>
       </c>
       <c r="E11" t="n">
-        <v>288.2315996557429</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>307.40341574372</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>308.8031864035687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>221.4231200351493</v>
       </c>
       <c r="I11" t="n">
-        <v>47.91511151251498</v>
+        <v>18.11254753855075</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.59335427552425</v>
+        <v>70.59335427552426</v>
       </c>
       <c r="T11" t="n">
         <v>117.1737096096081</v>
@@ -1427,13 +1427,13 @@
         <v>149.6875401049286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>231.0032183238067</v>
       </c>
       <c r="W11" t="n">
         <v>256.3033178017636</v>
       </c>
       <c r="X11" t="n">
-        <v>135.3710277062585</v>
+        <v>275.6035760345102</v>
       </c>
       <c r="Y11" t="n">
         <v>287.000173830709</v>
@@ -1467,7 +1467,7 @@
         <v>96.18166965105215</v>
       </c>
       <c r="I12" t="n">
-        <v>57.87060031443418</v>
+        <v>57.87060031443446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.46372347869212</v>
+        <v>41.46372347869266</v>
       </c>
       <c r="S12" t="n">
         <v>145.9694543883315</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.11355195832466</v>
+        <v>79.11355195832469</v>
       </c>
       <c r="C13" t="n">
-        <v>65.31354680372488</v>
+        <v>65.31354680372517</v>
       </c>
       <c r="D13" t="n">
-        <v>48.93491120130354</v>
+        <v>48.93491120130356</v>
       </c>
       <c r="E13" t="n">
-        <v>47.88266105708298</v>
+        <v>47.88266105708301</v>
       </c>
       <c r="F13" t="n">
-        <v>48.34958538526929</v>
+        <v>48.34958538526932</v>
       </c>
       <c r="G13" t="n">
-        <v>64.38497961213984</v>
+        <v>64.38497961213987</v>
       </c>
       <c r="H13" t="n">
-        <v>53.0449856602277</v>
+        <v>53.04498566022774</v>
       </c>
       <c r="I13" t="n">
-        <v>32.9580918256746</v>
+        <v>32.95809182567461</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66012040814836</v>
+        <v>34.66012040814837</v>
       </c>
       <c r="S13" t="n">
         <v>104.7959075319293</v>
@@ -1591,7 +1591,7 @@
         <v>180.6885744285635</v>
       </c>
       <c r="X13" t="n">
-        <v>126.3336764243666</v>
+        <v>126.3336764243667</v>
       </c>
       <c r="Y13" t="n">
         <v>117.2085441804343</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5341399942712286</v>
+        <v>266.4894620858373</v>
       </c>
       <c r="E14" t="n">
-        <v>288.2315996557429</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>307.40341574372</v>
       </c>
       <c r="G14" t="n">
-        <v>308.8031864035687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>221.4231200351493</v>
       </c>
       <c r="I14" t="n">
-        <v>47.91511151251497</v>
+        <v>47.91511151251495</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.59335427552425</v>
+        <v>70.59335427552423</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>117.1737096096081</v>
       </c>
       <c r="U14" t="n">
         <v>149.6875401049286</v>
@@ -1670,10 +1670,10 @@
         <v>256.3033178017636</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>213.9057543581359</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.000173830709</v>
+        <v>287.0001738307089</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.46372347869269</v>
+        <v>41.46372347869267</v>
       </c>
       <c r="S15" t="n">
         <v>145.9694543883315</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.11355195832466</v>
+        <v>79.11355195832465</v>
       </c>
       <c r="C16" t="n">
-        <v>65.31354680372515</v>
+        <v>65.31354680372513</v>
       </c>
       <c r="D16" t="n">
-        <v>48.93491120130354</v>
+        <v>48.93491120130352</v>
       </c>
       <c r="E16" t="n">
-        <v>47.88266105708298</v>
+        <v>47.88266105708297</v>
       </c>
       <c r="F16" t="n">
-        <v>48.34958538526929</v>
+        <v>48.34958538526928</v>
       </c>
       <c r="G16" t="n">
-        <v>64.38497961213984</v>
+        <v>64.38497961213983</v>
       </c>
       <c r="H16" t="n">
-        <v>53.04498566022771</v>
+        <v>53.0449856602277</v>
       </c>
       <c r="I16" t="n">
-        <v>32.9580918256746</v>
+        <v>32.95809182567456</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66012040814836</v>
+        <v>34.66012040814834</v>
       </c>
       <c r="S16" t="n">
         <v>104.7959075319293</v>
@@ -1822,7 +1822,7 @@
         <v>181.6990208859719</v>
       </c>
       <c r="V16" t="n">
-        <v>155.5216883579503</v>
+        <v>155.5216883579502</v>
       </c>
       <c r="W16" t="n">
         <v>180.6885744285635</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.284378970918601</v>
+        <v>7.284378970918596</v>
       </c>
       <c r="T17" t="n">
-        <v>53.86473430500242</v>
+        <v>53.86473430500243</v>
       </c>
       <c r="U17" t="n">
         <v>86.37856480032298</v>
@@ -1932,10 +1932,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>133.3468600696246</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1557687898834</v>
+        <v>127.1557687898822</v>
       </c>
       <c r="H18" t="n">
         <v>96.18166965105215</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.46372347869269</v>
+        <v>41.46372347869267</v>
       </c>
       <c r="S18" t="n">
         <v>145.9694543883315</v>
@@ -2017,7 +2017,7 @@
         <v>1.076004307534193</v>
       </c>
       <c r="H19" t="n">
-        <v>153.8486728652439</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.48693222732364</v>
+        <v>41.48693222732363</v>
       </c>
       <c r="T19" t="n">
         <v>63.90942537771254</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3900455813663</v>
+        <v>272.2387184466104</v>
       </c>
       <c r="V19" t="n">
         <v>92.2127130533446</v>
@@ -2087,7 +2087,7 @@
         <v>203.1804867812317</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9226243511372</v>
+        <v>224.9226243511363</v>
       </c>
       <c r="F20" t="n">
         <v>244.0944404391144</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.284378970917676</v>
+        <v>7.28437897091859</v>
       </c>
       <c r="T20" t="n">
         <v>53.86473430500242</v>
@@ -2178,7 +2178,7 @@
         <v>96.18166965105215</v>
       </c>
       <c r="I21" t="n">
-        <v>57.87060031443418</v>
+        <v>57.87060031443446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.46372347869269</v>
+        <v>41.46372347869267</v>
       </c>
       <c r="S21" t="n">
         <v>145.9694543883315</v>
       </c>
       <c r="T21" t="n">
-        <v>185.6477043486855</v>
+        <v>185.6477043486848</v>
       </c>
       <c r="U21" t="n">
         <v>216.2910651232607</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>137.2663834473597</v>
       </c>
       <c r="S22" t="n">
-        <v>195.3356050925674</v>
+        <v>58.06922164520793</v>
       </c>
       <c r="T22" t="n">
         <v>63.90942537771254</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.284378970918596</v>
+        <v>7.284378970918567</v>
       </c>
       <c r="T23" t="n">
         <v>53.86473430500243</v>
@@ -2415,7 +2415,7 @@
         <v>96.18166965105215</v>
       </c>
       <c r="I24" t="n">
-        <v>57.87060031443418</v>
+        <v>57.87060031443417</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.46372347869269</v>
+        <v>41.46372347869266</v>
       </c>
       <c r="S24" t="n">
         <v>145.9694543883315</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>154.9246771727781</v>
+        <v>1.076004307534193</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.2663834473597</v>
       </c>
       <c r="S25" t="n">
-        <v>41.48693222732364</v>
+        <v>41.48693222732363</v>
       </c>
       <c r="T25" t="n">
-        <v>63.90942537771254</v>
+        <v>80.49171479559705</v>
       </c>
       <c r="U25" t="n">
         <v>118.3900455813663</v>
@@ -2573,7 +2573,7 @@
         <v>221.4231200351493</v>
       </c>
       <c r="I26" t="n">
-        <v>47.91511151251498</v>
+        <v>47.91511151251494</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.59335427552426</v>
+        <v>70.59335427552423</v>
       </c>
       <c r="T26" t="n">
         <v>117.1737096096081</v>
@@ -2652,7 +2652,7 @@
         <v>96.18166965105215</v>
       </c>
       <c r="I27" t="n">
-        <v>57.87060031443418</v>
+        <v>57.87060031443417</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.46372347869269</v>
+        <v>41.46372347869266</v>
       </c>
       <c r="S27" t="n">
         <v>145.9694543883315</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.11355195832468</v>
+        <v>79.11355195832466</v>
       </c>
       <c r="C28" t="n">
-        <v>65.31354680372516</v>
+        <v>65.31354680372515</v>
       </c>
       <c r="D28" t="n">
-        <v>48.93491120130355</v>
+        <v>48.93491120130354</v>
       </c>
       <c r="E28" t="n">
-        <v>47.882661057083</v>
+        <v>47.88266105708298</v>
       </c>
       <c r="F28" t="n">
-        <v>48.34958538526931</v>
+        <v>48.34958538526929</v>
       </c>
       <c r="G28" t="n">
-        <v>64.38497961213986</v>
+        <v>64.38497961213984</v>
       </c>
       <c r="H28" t="n">
-        <v>53.04498566022772</v>
+        <v>53.0449856602277</v>
       </c>
       <c r="I28" t="n">
-        <v>32.9580918256746</v>
+        <v>32.95809182567458</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66012040814837</v>
+        <v>34.66012040814834</v>
       </c>
       <c r="S28" t="n">
         <v>104.7959075319293</v>
@@ -2798,19 +2798,19 @@
         <v>266.4894620858373</v>
       </c>
       <c r="E29" t="n">
-        <v>288.2315996557428</v>
+        <v>288.2315996557429</v>
       </c>
       <c r="F29" t="n">
-        <v>307.40341574372</v>
+        <v>307.4034157437204</v>
       </c>
       <c r="G29" t="n">
-        <v>308.8031864035686</v>
+        <v>308.8031864035687</v>
       </c>
       <c r="H29" t="n">
         <v>221.4231200351493</v>
       </c>
       <c r="I29" t="n">
-        <v>47.91511151251498</v>
+        <v>47.91511151251493</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.59335427552425</v>
+        <v>70.59335427552423</v>
       </c>
       <c r="T29" t="n">
         <v>117.1737096096081</v>
@@ -2858,7 +2858,7 @@
         <v>275.6035760345102</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.0001738307089</v>
+        <v>287.000173830709</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>96.18166965105215</v>
       </c>
       <c r="I30" t="n">
-        <v>57.87060031443418</v>
+        <v>57.87060031443416</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.4637234786927</v>
+        <v>41.46372347869263</v>
       </c>
       <c r="S30" t="n">
-        <v>145.9694543883315</v>
+        <v>145.9694543883314</v>
       </c>
       <c r="T30" t="n">
         <v>185.6477043486848</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.11355195832465</v>
+        <v>79.11355195832468</v>
       </c>
       <c r="C31" t="n">
-        <v>65.31354680372513</v>
+        <v>65.31354680372516</v>
       </c>
       <c r="D31" t="n">
-        <v>48.93491120130352</v>
+        <v>48.93491120130355</v>
       </c>
       <c r="E31" t="n">
-        <v>47.88266105708297</v>
+        <v>47.882661057083</v>
       </c>
       <c r="F31" t="n">
-        <v>48.34958538526928</v>
+        <v>48.34958538526931</v>
       </c>
       <c r="G31" t="n">
-        <v>64.38497961213983</v>
+        <v>64.38497961213986</v>
       </c>
       <c r="H31" t="n">
-        <v>53.04498566022769</v>
+        <v>53.04498566022771</v>
       </c>
       <c r="I31" t="n">
         <v>32.95809182567458</v>
@@ -3007,7 +3007,7 @@
         <v>181.6990208859719</v>
       </c>
       <c r="V31" t="n">
-        <v>155.5216883579502</v>
+        <v>155.5216883579503</v>
       </c>
       <c r="W31" t="n">
         <v>180.6885744285635</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>287.4968410836276</v>
+        <v>287.4968410836275</v>
       </c>
       <c r="C32" t="n">
         <v>275.5081580413093</v>
@@ -3035,19 +3035,19 @@
         <v>266.4894620858373</v>
       </c>
       <c r="E32" t="n">
-        <v>288.2315996557429</v>
+        <v>288.2315996557428</v>
       </c>
       <c r="F32" t="n">
         <v>307.40341574372</v>
       </c>
       <c r="G32" t="n">
-        <v>308.8031864035687</v>
+        <v>308.8031864035686</v>
       </c>
       <c r="H32" t="n">
         <v>221.4231200351493</v>
       </c>
       <c r="I32" t="n">
-        <v>47.91511151251497</v>
+        <v>47.9151115125149</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.59335427552425</v>
+        <v>70.59335427552418</v>
       </c>
       <c r="T32" t="n">
-        <v>117.1737096096081</v>
+        <v>117.173709609608</v>
       </c>
       <c r="U32" t="n">
         <v>149.6875401049286</v>
@@ -3095,7 +3095,7 @@
         <v>275.6035760345102</v>
       </c>
       <c r="Y32" t="n">
-        <v>287.000173830709</v>
+        <v>287.0001738307089</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>96.18166965105215</v>
       </c>
       <c r="I33" t="n">
-        <v>57.87060031443418</v>
+        <v>57.87060031443417</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.46372347869269</v>
+        <v>41.46372347869266</v>
       </c>
       <c r="S33" t="n">
         <v>145.9694543883315</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.11355195832466</v>
+        <v>79.11355195832462</v>
       </c>
       <c r="C34" t="n">
-        <v>65.31354680372515</v>
+        <v>65.3135468037251</v>
       </c>
       <c r="D34" t="n">
-        <v>48.93491120130354</v>
+        <v>48.93491120130349</v>
       </c>
       <c r="E34" t="n">
-        <v>47.88266105708298</v>
+        <v>47.88266105708294</v>
       </c>
       <c r="F34" t="n">
-        <v>48.34958538526929</v>
+        <v>48.34958538526925</v>
       </c>
       <c r="G34" t="n">
-        <v>64.38497961213984</v>
+        <v>64.3849796121398</v>
       </c>
       <c r="H34" t="n">
-        <v>53.0449856602277</v>
+        <v>53.04498566022765</v>
       </c>
       <c r="I34" t="n">
-        <v>32.95809182567459</v>
+        <v>32.95809182567454</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66012040814836</v>
+        <v>34.66012040814829</v>
       </c>
       <c r="S34" t="n">
-        <v>104.7959075319293</v>
+        <v>104.7959075319292</v>
       </c>
       <c r="T34" t="n">
-        <v>127.2184006823182</v>
+        <v>127.2184006823181</v>
       </c>
       <c r="U34" t="n">
         <v>181.6990208859719</v>
       </c>
       <c r="V34" t="n">
-        <v>155.5216883579503</v>
+        <v>155.5216883579502</v>
       </c>
       <c r="W34" t="n">
         <v>180.6885744285635</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.17546039213941</v>
+        <v>20.17546039213939</v>
       </c>
       <c r="T35" t="n">
-        <v>66.75581572622323</v>
+        <v>66.75581572622322</v>
       </c>
       <c r="U35" t="n">
         <v>99.26964622154378</v>
@@ -3363,7 +3363,7 @@
         <v>96.18166965105215</v>
       </c>
       <c r="I36" t="n">
-        <v>57.87060031443418</v>
+        <v>57.87060031443417</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.46372347869269</v>
+        <v>41.46372347869266</v>
       </c>
       <c r="S36" t="n">
         <v>145.9694543883315</v>
@@ -3439,7 +3439,7 @@
         <v>13.967085728755</v>
       </c>
       <c r="H37" t="n">
-        <v>2.627091776842852</v>
+        <v>2.627091776842848</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>76.6887805247374</v>
+        <v>54.37801364854444</v>
       </c>
       <c r="T37" t="n">
         <v>76.80050679893334</v>
@@ -3490,7 +3490,7 @@
         <v>75.91578254098178</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.79065029704947</v>
+        <v>89.10141717324289</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.17546039213941</v>
+        <v>20.17546039213939</v>
       </c>
       <c r="T38" t="n">
-        <v>66.75581572622323</v>
+        <v>66.75581572622322</v>
       </c>
       <c r="U38" t="n">
         <v>99.26964622154378</v>
@@ -3600,7 +3600,7 @@
         <v>96.18166965105215</v>
       </c>
       <c r="I39" t="n">
-        <v>57.87060031443418</v>
+        <v>57.87060031443417</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.46372347869269</v>
+        <v>41.46372347869266</v>
       </c>
       <c r="S39" t="n">
         <v>145.9694543883315</v>
@@ -3676,7 +3676,7 @@
         <v>13.967085728755</v>
       </c>
       <c r="H40" t="n">
-        <v>2.627091776842852</v>
+        <v>2.627091776842848</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.11314481802729</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.37801364854445</v>
+        <v>54.37801364854444</v>
       </c>
       <c r="T40" t="n">
-        <v>76.80050679893334</v>
+        <v>80.99812885709949</v>
       </c>
       <c r="U40" t="n">
         <v>131.2811270025871</v>
@@ -3727,7 +3727,7 @@
         <v>75.91578254098178</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.10141717324247</v>
+        <v>66.79065029704947</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.3225978663124</v>
+        <v>257.3225978663125</v>
       </c>
       <c r="C41" t="n">
         <v>245.3339148239942</v>
       </c>
       <c r="D41" t="n">
-        <v>236.3152188685222</v>
+        <v>144.1529863613802</v>
       </c>
       <c r="E41" t="n">
-        <v>102.0648245639542</v>
+        <v>258.0573564384277</v>
       </c>
       <c r="F41" t="n">
         <v>277.2291725264049</v>
@@ -3755,7 +3755,7 @@
         <v>278.6289431862536</v>
       </c>
       <c r="H41" t="n">
-        <v>191.2488768178342</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.41911105820914</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>86.99946639229297</v>
       </c>
       <c r="U41" t="n">
         <v>119.5132968876135</v>
@@ -3837,7 +3837,7 @@
         <v>96.18166965105215</v>
       </c>
       <c r="I42" t="n">
-        <v>57.87060031443418</v>
+        <v>57.87060031443417</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.46372347869269</v>
+        <v>41.46372347869266</v>
       </c>
       <c r="S42" t="n">
         <v>145.9694543883315</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.93930874100954</v>
+        <v>48.93930874100957</v>
       </c>
       <c r="C43" t="n">
-        <v>35.13930358641002</v>
+        <v>35.13930358641005</v>
       </c>
       <c r="D43" t="n">
-        <v>18.76066798398841</v>
+        <v>18.76066798398844</v>
       </c>
       <c r="E43" t="n">
-        <v>17.70841783976786</v>
+        <v>17.70841783976789</v>
       </c>
       <c r="F43" t="n">
-        <v>18.17534216795417</v>
+        <v>18.1753421679542</v>
       </c>
       <c r="G43" t="n">
-        <v>34.21073639482472</v>
+        <v>34.21073639482475</v>
       </c>
       <c r="H43" t="n">
-        <v>22.87074244291258</v>
+        <v>22.8707424429126</v>
       </c>
       <c r="I43" t="n">
-        <v>2.783848608359466</v>
+        <v>2.783848608359482</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.485877190833232</v>
+        <v>4.485877190833243</v>
       </c>
       <c r="S43" t="n">
-        <v>74.62166431461418</v>
+        <v>74.62166431461419</v>
       </c>
       <c r="T43" t="n">
-        <v>97.04415746500307</v>
+        <v>97.0441574650031</v>
       </c>
       <c r="U43" t="n">
         <v>151.5247776686568</v>
       </c>
       <c r="V43" t="n">
-        <v>125.3474451406351</v>
+        <v>125.3474451406352</v>
       </c>
       <c r="W43" t="n">
         <v>150.5143312112484</v>
       </c>
       <c r="X43" t="n">
-        <v>96.15943320705151</v>
+        <v>96.15943320705153</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.03430096311919</v>
+        <v>87.03430096311922</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>257.3225978663124</v>
+        <v>257.3225978663125</v>
       </c>
       <c r="C44" t="n">
-        <v>245.3339148239942</v>
+        <v>245.3339148239943</v>
       </c>
       <c r="D44" t="n">
-        <v>236.3152188685222</v>
+        <v>236.3152188685223</v>
       </c>
       <c r="E44" t="n">
-        <v>258.0573564384277</v>
+        <v>258.0573564384278</v>
       </c>
       <c r="F44" t="n">
-        <v>277.2291725264049</v>
+        <v>277.229172526405</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6289431862535</v>
+        <v>168.7258423839116</v>
       </c>
       <c r="H44" t="n">
-        <v>35.25634494336038</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>17.7408682951999</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.4191110582092</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>86.99946639229303</v>
       </c>
       <c r="U44" t="n">
-        <v>119.5132968876135</v>
+        <v>119.5132968876136</v>
       </c>
       <c r="V44" t="n">
-        <v>200.8289751064916</v>
+        <v>200.8289751064917</v>
       </c>
       <c r="W44" t="n">
-        <v>226.1290745844485</v>
+        <v>226.1290745844486</v>
       </c>
       <c r="X44" t="n">
-        <v>245.4293328171951</v>
+        <v>245.4293328171952</v>
       </c>
       <c r="Y44" t="n">
-        <v>256.8259306133939</v>
+        <v>256.825930613394</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>96.18166965105215</v>
       </c>
       <c r="I45" t="n">
-        <v>57.87060031443418</v>
+        <v>57.87060031443417</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.46372347869269</v>
+        <v>41.46372347869266</v>
       </c>
       <c r="S45" t="n">
         <v>145.9694543883315</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.93930874100954</v>
+        <v>48.93930874100963</v>
       </c>
       <c r="C46" t="n">
-        <v>35.13930358641002</v>
+        <v>35.13930358641011</v>
       </c>
       <c r="D46" t="n">
-        <v>18.76066798398841</v>
+        <v>18.7606679839885</v>
       </c>
       <c r="E46" t="n">
-        <v>17.70841783976786</v>
+        <v>17.70841783976795</v>
       </c>
       <c r="F46" t="n">
-        <v>18.17534216795417</v>
+        <v>18.17534216795426</v>
       </c>
       <c r="G46" t="n">
-        <v>34.21073639482472</v>
+        <v>34.21073639482481</v>
       </c>
       <c r="H46" t="n">
-        <v>22.87074244291258</v>
+        <v>22.87074244291266</v>
       </c>
       <c r="I46" t="n">
-        <v>2.783848608359466</v>
+        <v>2.783848608359539</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.485877190833232</v>
+        <v>4.4858771908333</v>
       </c>
       <c r="S46" t="n">
-        <v>74.62166431461418</v>
+        <v>74.62166431461425</v>
       </c>
       <c r="T46" t="n">
-        <v>97.04415746500307</v>
+        <v>97.04415746500315</v>
       </c>
       <c r="U46" t="n">
-        <v>151.5247776686568</v>
+        <v>151.5247776686569</v>
       </c>
       <c r="V46" t="n">
-        <v>125.3474451406351</v>
+        <v>125.3474451406352</v>
       </c>
       <c r="W46" t="n">
-        <v>150.5143312112484</v>
+        <v>150.5143312112485</v>
       </c>
       <c r="X46" t="n">
-        <v>96.15943320705151</v>
+        <v>96.15943320705159</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.03430096311919</v>
+        <v>87.03430096311928</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1505.450915175334</v>
+        <v>840.0644427150452</v>
       </c>
       <c r="C11" t="n">
-        <v>1505.450915175334</v>
+        <v>561.7733739864499</v>
       </c>
       <c r="D11" t="n">
-        <v>1236.269640341155</v>
+        <v>292.5920991522707</v>
       </c>
       <c r="E11" t="n">
-        <v>945.1266103858591</v>
+        <v>292.5920991522707</v>
       </c>
       <c r="F11" t="n">
-        <v>634.6181096346268</v>
+        <v>292.5920991522707</v>
       </c>
       <c r="G11" t="n">
-        <v>322.6956991259714</v>
+        <v>292.5920991522707</v>
       </c>
       <c r="H11" t="n">
-        <v>99.03598191874994</v>
+        <v>68.9323819450487</v>
       </c>
       <c r="I11" t="n">
-        <v>50.63687938085601</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J11" t="n">
-        <v>50.63687938085601</v>
+        <v>167.4625357095194</v>
       </c>
       <c r="K11" t="n">
-        <v>357.9614721673322</v>
+        <v>474.7871284959958</v>
       </c>
       <c r="L11" t="n">
-        <v>723.7223471380169</v>
+        <v>723.7223471380173</v>
       </c>
       <c r="M11" t="n">
         <v>1209.702185740072</v>
       </c>
       <c r="N11" t="n">
-        <v>1682.274857812748</v>
+        <v>1682.274857812749</v>
       </c>
       <c r="O11" t="n">
-        <v>2076.268842145979</v>
+        <v>2076.26884214598</v>
       </c>
       <c r="P11" t="n">
-        <v>2380.376132540352</v>
+        <v>2380.376132540353</v>
       </c>
       <c r="Q11" t="n">
-        <v>2531.8439690428</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="R11" t="n">
-        <v>2531.8439690428</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="S11" t="n">
-        <v>2460.537550582675</v>
+        <v>2460.537550582676</v>
       </c>
       <c r="T11" t="n">
-        <v>2342.180268148727</v>
+        <v>2342.180268148728</v>
       </c>
       <c r="U11" t="n">
         <v>2190.980732689204</v>
       </c>
       <c r="V11" t="n">
-        <v>2190.980732689204</v>
+        <v>1957.644148523743</v>
       </c>
       <c r="W11" t="n">
-        <v>1932.088492485402</v>
+        <v>1698.751908319941</v>
       </c>
       <c r="X11" t="n">
-        <v>1795.350080660899</v>
+        <v>1420.364457780032</v>
       </c>
       <c r="Y11" t="n">
-        <v>1505.450915175334</v>
+        <v>1130.465292294467</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5094,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.9495211382654</v>
+        <v>916.9495211382657</v>
       </c>
       <c r="C12" t="n">
-        <v>755.2458483792201</v>
+        <v>755.2458483792204</v>
       </c>
       <c r="D12" t="n">
-        <v>616.4072113694322</v>
+        <v>616.4072113694325</v>
       </c>
       <c r="E12" t="n">
-        <v>469.3792014263034</v>
+        <v>469.3792014263037</v>
       </c>
       <c r="F12" t="n">
-        <v>334.6854033761778</v>
+        <v>334.6854033761781</v>
       </c>
       <c r="G12" t="n">
-        <v>206.2452328813472</v>
+        <v>206.2452328813476</v>
       </c>
       <c r="H12" t="n">
-        <v>109.0920312136178</v>
+        <v>109.0920312136181</v>
       </c>
       <c r="I12" t="n">
-        <v>50.63687938085601</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J12" t="n">
-        <v>50.63687938085601</v>
+        <v>137.5897467579698</v>
       </c>
       <c r="K12" t="n">
-        <v>325.7597983731429</v>
+        <v>412.7126657502567</v>
       </c>
       <c r="L12" t="n">
-        <v>752.9399915950015</v>
+        <v>839.8928589721155</v>
       </c>
       <c r="M12" t="n">
-        <v>1309.575643195304</v>
+        <v>1396.528510572418</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.338687179658</v>
+        <v>1981.291554556772</v>
       </c>
       <c r="O12" t="n">
-        <v>2353.774398124659</v>
+        <v>1981.941209009392</v>
       </c>
       <c r="P12" t="n">
-        <v>2531.8439690428</v>
+        <v>2337.999753423495</v>
       </c>
       <c r="Q12" t="n">
-        <v>2531.8439690428</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.961420074424</v>
+        <v>2489.961420074425</v>
       </c>
       <c r="S12" t="n">
         <v>2342.517526752878</v>
@@ -5160,10 +5160,10 @@
         <v>1466.807278392153</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.890290269947</v>
+        <v>1268.890290269948</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.368963919526</v>
+        <v>1076.368963919527</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.1507799317883</v>
+        <v>415.1507799317888</v>
       </c>
       <c r="C13" t="n">
-        <v>349.1775003320662</v>
+        <v>349.1775003320664</v>
       </c>
       <c r="D13" t="n">
-        <v>299.7482970984262</v>
+        <v>299.7482970984265</v>
       </c>
       <c r="E13" t="n">
-        <v>251.3819727983424</v>
+        <v>251.3819727983426</v>
       </c>
       <c r="F13" t="n">
-        <v>202.5440077627169</v>
+        <v>202.544007762717</v>
       </c>
       <c r="G13" t="n">
         <v>137.5086748211614</v>
       </c>
       <c r="H13" t="n">
-        <v>83.92788122497177</v>
+        <v>83.9278812249718</v>
       </c>
       <c r="I13" t="n">
-        <v>50.63687938085601</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J13" t="n">
-        <v>110.1048997056544</v>
+        <v>110.1048997056545</v>
       </c>
       <c r="K13" t="n">
-        <v>272.8145508938942</v>
+        <v>272.8145508938943</v>
       </c>
       <c r="L13" t="n">
-        <v>510.2246907711063</v>
+        <v>510.2246907711065</v>
       </c>
       <c r="M13" t="n">
-        <v>766.9359646399735</v>
+        <v>766.9359646399737</v>
       </c>
       <c r="N13" t="n">
         <v>1023.193025786218</v>
       </c>
       <c r="O13" t="n">
-        <v>1256.723788939922</v>
+        <v>1256.723788939923</v>
       </c>
       <c r="P13" t="n">
-        <v>1449.926314971611</v>
+        <v>1449.926314971612</v>
       </c>
       <c r="Q13" t="n">
         <v>1533.574502010584</v>
@@ -5224,7 +5224,7 @@
         <v>1498.56427937609</v>
       </c>
       <c r="S13" t="n">
-        <v>1392.709827323637</v>
+        <v>1392.709827323636</v>
       </c>
       <c r="T13" t="n">
         <v>1264.206392290992</v>
@@ -5233,16 +5233,16 @@
         <v>1080.672027759707</v>
       </c>
       <c r="V13" t="n">
-        <v>923.5794132567269</v>
+        <v>923.5794132567273</v>
       </c>
       <c r="W13" t="n">
-        <v>741.0657017127234</v>
+        <v>741.0657017127238</v>
       </c>
       <c r="X13" t="n">
-        <v>613.4559275466963</v>
+        <v>613.4559275466969</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.0634586775708</v>
+        <v>495.0634586775713</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1236.809175688904</v>
+        <v>902.3854747113829</v>
       </c>
       <c r="C14" t="n">
-        <v>1236.809175688904</v>
+        <v>902.3854747113829</v>
       </c>
       <c r="D14" t="n">
-        <v>1236.269640341155</v>
+        <v>633.2041998772038</v>
       </c>
       <c r="E14" t="n">
-        <v>945.1266103858591</v>
+        <v>633.2041998772038</v>
       </c>
       <c r="F14" t="n">
-        <v>634.6181096346268</v>
+        <v>322.6956991259715</v>
       </c>
       <c r="G14" t="n">
         <v>322.6956991259715</v>
       </c>
       <c r="H14" t="n">
-        <v>99.03598191874995</v>
+        <v>99.03598191874993</v>
       </c>
       <c r="I14" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J14" t="n">
         <v>167.4625357095194</v>
       </c>
       <c r="K14" t="n">
-        <v>474.7871284959956</v>
+        <v>474.7871284959957</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0204682461917</v>
+        <v>906.020468246192</v>
       </c>
       <c r="M14" t="n">
         <v>1392.000306848247</v>
       </c>
       <c r="N14" t="n">
-        <v>1864.572978920923</v>
+        <v>1833.742694315198</v>
       </c>
       <c r="O14" t="n">
-        <v>2258.566963254154</v>
+        <v>2227.736678648429</v>
       </c>
       <c r="P14" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="R14" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="S14" t="n">
-        <v>2460.537550582677</v>
+        <v>2460.537550582676</v>
       </c>
       <c r="T14" t="n">
-        <v>2460.537550582677</v>
+        <v>2342.180268148728</v>
       </c>
       <c r="U14" t="n">
-        <v>2309.338015123153</v>
+        <v>2190.980732689204</v>
       </c>
       <c r="V14" t="n">
-        <v>2076.001430957692</v>
+        <v>1957.644148523743</v>
       </c>
       <c r="W14" t="n">
-        <v>1817.10919075389</v>
+        <v>1698.751908319941</v>
       </c>
       <c r="X14" t="n">
-        <v>1817.10919075389</v>
+        <v>1482.685489776369</v>
       </c>
       <c r="Y14" t="n">
-        <v>1527.210025268325</v>
+        <v>1192.786324290805</v>
       </c>
     </row>
     <row r="15">
@@ -5331,58 +5331,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.9495211382658</v>
+        <v>916.9495211382654</v>
       </c>
       <c r="C15" t="n">
-        <v>755.2458483792207</v>
+        <v>755.2458483792201</v>
       </c>
       <c r="D15" t="n">
-        <v>616.4072113694326</v>
+        <v>616.4072113694322</v>
       </c>
       <c r="E15" t="n">
-        <v>469.3792014263038</v>
+        <v>469.3792014263034</v>
       </c>
       <c r="F15" t="n">
-        <v>334.6854033761782</v>
+        <v>334.6854033761778</v>
       </c>
       <c r="G15" t="n">
-        <v>206.2452328813476</v>
+        <v>206.2452328813473</v>
       </c>
       <c r="H15" t="n">
-        <v>109.0920312136179</v>
+        <v>109.0920312136178</v>
       </c>
       <c r="I15" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J15" t="n">
         <v>137.5897467579698</v>
       </c>
       <c r="K15" t="n">
-        <v>412.7126657502566</v>
+        <v>412.7126657502567</v>
       </c>
       <c r="L15" t="n">
-        <v>839.8928589721153</v>
+        <v>839.8928589721154</v>
       </c>
       <c r="M15" t="n">
         <v>1396.528510572417</v>
       </c>
       <c r="N15" t="n">
-        <v>1522.505498064391</v>
+        <v>1522.50549806439</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.941209009393</v>
+        <v>1981.941209009391</v>
       </c>
       <c r="P15" t="n">
-        <v>2337.999753423496</v>
+        <v>2337.999753423494</v>
       </c>
       <c r="Q15" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="R15" t="n">
-        <v>2489.961420074426</v>
+        <v>2489.961420074424</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.517526752879</v>
+        <v>2342.517526752878</v>
       </c>
       <c r="T15" t="n">
         <v>2154.994593067338</v>
@@ -5397,10 +5397,10 @@
         <v>1466.807278392153</v>
       </c>
       <c r="X15" t="n">
-        <v>1268.890290269948</v>
+        <v>1268.890290269947</v>
       </c>
       <c r="Y15" t="n">
-        <v>1076.368963919527</v>
+        <v>1076.368963919526</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.1507799317882</v>
+        <v>415.1507799317881</v>
       </c>
       <c r="C16" t="n">
-        <v>349.1775003320658</v>
+        <v>349.1775003320657</v>
       </c>
       <c r="D16" t="n">
-        <v>299.7482970984259</v>
+        <v>299.7482970984258</v>
       </c>
       <c r="E16" t="n">
-        <v>251.3819727983421</v>
+        <v>251.381972798342</v>
       </c>
       <c r="F16" t="n">
         <v>202.5440077627165</v>
@@ -5428,40 +5428,40 @@
         <v>137.5086748211611</v>
       </c>
       <c r="H16" t="n">
-        <v>83.92788122497149</v>
+        <v>83.92788122497176</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J16" t="n">
-        <v>110.1048997056546</v>
+        <v>110.1048997056542</v>
       </c>
       <c r="K16" t="n">
-        <v>272.8145508938944</v>
+        <v>272.8145508938941</v>
       </c>
       <c r="L16" t="n">
-        <v>510.2246907711066</v>
+        <v>510.2246907711063</v>
       </c>
       <c r="M16" t="n">
-        <v>766.9359646399737</v>
+        <v>766.9359646399738</v>
       </c>
       <c r="N16" t="n">
-        <v>1023.193025786218</v>
+        <v>1023.193025786219</v>
       </c>
       <c r="O16" t="n">
-        <v>1256.723788939922</v>
+        <v>1256.723788939923</v>
       </c>
       <c r="P16" t="n">
-        <v>1449.926314971611</v>
+        <v>1449.926314971612</v>
       </c>
       <c r="Q16" t="n">
-        <v>1533.574502010583</v>
+        <v>1533.574502010584</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.56427937609</v>
+        <v>1498.564279376091</v>
       </c>
       <c r="S16" t="n">
-        <v>1392.709827323636</v>
+        <v>1392.709827323637</v>
       </c>
       <c r="T16" t="n">
         <v>1264.206392290992</v>
@@ -5470,16 +5470,16 @@
         <v>1080.672027759707</v>
       </c>
       <c r="V16" t="n">
-        <v>923.5794132567268</v>
+        <v>923.5794132567271</v>
       </c>
       <c r="W16" t="n">
-        <v>741.0657017127232</v>
+        <v>741.0657017127236</v>
       </c>
       <c r="X16" t="n">
-        <v>613.4559275466963</v>
+        <v>613.4559275466961</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.0634586775707</v>
+        <v>495.0634586775706</v>
       </c>
     </row>
     <row r="17">
@@ -5495,55 +5495,55 @@
         <v>1137.309513119229</v>
       </c>
       <c r="D17" t="n">
-        <v>932.0766981886924</v>
+        <v>932.0766981886925</v>
       </c>
       <c r="E17" t="n">
-        <v>704.8821281370385</v>
+        <v>704.8821281370388</v>
       </c>
       <c r="F17" t="n">
-        <v>458.3220872894483</v>
+        <v>458.3220872894485</v>
       </c>
       <c r="G17" t="n">
         <v>210.3481366844355</v>
       </c>
       <c r="H17" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="I17" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J17" t="n">
-        <v>50.63687938085604</v>
+        <v>167.4625357095194</v>
       </c>
       <c r="K17" t="n">
-        <v>292.4890073878225</v>
+        <v>474.7871284959957</v>
       </c>
       <c r="L17" t="n">
-        <v>723.7223471380187</v>
+        <v>723.7223471380175</v>
       </c>
       <c r="M17" t="n">
-        <v>1209.702185740073</v>
+        <v>1209.702185740072</v>
       </c>
       <c r="N17" t="n">
-        <v>1682.27485781275</v>
+        <v>1682.274857812749</v>
       </c>
       <c r="O17" t="n">
-        <v>2076.268842145981</v>
+        <v>2076.26884214598</v>
       </c>
       <c r="P17" t="n">
         <v>2380.376132540353</v>
       </c>
       <c r="Q17" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="R17" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="S17" t="n">
         <v>2524.486010486318</v>
       </c>
       <c r="T17" t="n">
-        <v>2470.077187956013</v>
+        <v>2470.077187956012</v>
       </c>
       <c r="U17" t="n">
         <v>2382.826112400131</v>
@@ -5552,13 +5552,13 @@
         <v>2213.437988138312</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.494207838152</v>
+        <v>2018.494207838153</v>
       </c>
       <c r="X17" t="n">
         <v>1804.055217201885</v>
       </c>
       <c r="Y17" t="n">
-        <v>1578.104511619962</v>
+        <v>1578.104511619963</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.9495211382666</v>
+        <v>916.9495211382657</v>
       </c>
       <c r="C18" t="n">
-        <v>755.2458483792213</v>
+        <v>755.2458483792204</v>
       </c>
       <c r="D18" t="n">
-        <v>616.4072113694334</v>
+        <v>616.4072113694325</v>
       </c>
       <c r="E18" t="n">
-        <v>469.3792014263046</v>
+        <v>469.3792014263037</v>
       </c>
       <c r="F18" t="n">
-        <v>334.685403376179</v>
+        <v>334.6854033761778</v>
       </c>
       <c r="G18" t="n">
         <v>206.2452328813473</v>
@@ -5589,52 +5589,52 @@
         <v>109.0920312136178</v>
       </c>
       <c r="I18" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J18" t="n">
         <v>137.5897467579698</v>
       </c>
       <c r="K18" t="n">
-        <v>412.7126657502566</v>
+        <v>412.7126657502567</v>
       </c>
       <c r="L18" t="n">
-        <v>839.8928589721153</v>
+        <v>839.8928589721154</v>
       </c>
       <c r="M18" t="n">
-        <v>1131.586669699343</v>
+        <v>1396.528510572417</v>
       </c>
       <c r="N18" t="n">
         <v>1716.349713683697</v>
       </c>
       <c r="O18" t="n">
-        <v>2175.785424628699</v>
+        <v>2175.785424628698</v>
       </c>
       <c r="P18" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="Q18" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="R18" t="n">
-        <v>2489.961420074426</v>
+        <v>2489.961420074425</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.517526752879</v>
+        <v>2342.517526752878</v>
       </c>
       <c r="T18" t="n">
-        <v>2154.994593067339</v>
+        <v>2154.994593067338</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.51876971051</v>
+        <v>1936.518769710509</v>
       </c>
       <c r="V18" t="n">
-        <v>1708.123147158844</v>
+        <v>1708.123147158843</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.807278392154</v>
+        <v>1466.807278392153</v>
       </c>
       <c r="X18" t="n">
-        <v>1268.890290269949</v>
+        <v>1268.890290269948</v>
       </c>
       <c r="Y18" t="n">
         <v>1076.368963919527</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>209.1512719787324</v>
+        <v>53.74857211484965</v>
       </c>
       <c r="C19" t="n">
-        <v>207.1264522826521</v>
+        <v>51.72375241876936</v>
       </c>
       <c r="D19" t="n">
-        <v>207.1264522826521</v>
+        <v>51.72375241876936</v>
       </c>
       <c r="E19" t="n">
-        <v>207.1264522826521</v>
+        <v>51.72375241876936</v>
       </c>
       <c r="F19" t="n">
-        <v>207.1264522826521</v>
+        <v>51.72375241876936</v>
       </c>
       <c r="G19" t="n">
-        <v>206.0395792447388</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="I19" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J19" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="K19" t="n">
         <v>111.7663301602766</v>
       </c>
       <c r="L19" t="n">
-        <v>247.5962696286695</v>
+        <v>247.5962696286696</v>
       </c>
       <c r="M19" t="n">
         <v>402.7273430887175</v>
       </c>
       <c r="N19" t="n">
-        <v>557.4042038261429</v>
+        <v>557.404203826143</v>
       </c>
       <c r="O19" t="n">
-        <v>689.3547665710278</v>
+        <v>689.354766571028</v>
       </c>
       <c r="P19" t="n">
-        <v>780.9770921938975</v>
+        <v>780.9770921938978</v>
       </c>
       <c r="Q19" t="n">
-        <v>780.9770921938975</v>
+        <v>780.9770921938978</v>
       </c>
       <c r="R19" t="n">
-        <v>780.9770921938975</v>
+        <v>780.9770921938978</v>
       </c>
       <c r="S19" t="n">
-        <v>739.0711000450858</v>
+        <v>739.071100045086</v>
       </c>
       <c r="T19" t="n">
-        <v>674.5161249160833</v>
+        <v>674.5161249160835</v>
       </c>
       <c r="U19" t="n">
-        <v>554.9302202884406</v>
+        <v>399.5275204245578</v>
       </c>
       <c r="V19" t="n">
-        <v>461.7860656891027</v>
+        <v>306.3833658252199</v>
       </c>
       <c r="W19" t="n">
-        <v>343.2208140487412</v>
+        <v>187.8181141848584</v>
       </c>
       <c r="X19" t="n">
-        <v>279.5594997863564</v>
+        <v>124.1567999224736</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1154908208729</v>
+        <v>69.71279095699006</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.652121944184</v>
+        <v>1351.652121944183</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.309513119231</v>
+        <v>1137.309513119229</v>
       </c>
       <c r="D20" t="n">
-        <v>932.0766981886936</v>
+        <v>932.0766981886923</v>
       </c>
       <c r="E20" t="n">
-        <v>704.8821281370399</v>
+        <v>704.8821281370394</v>
       </c>
       <c r="F20" t="n">
-        <v>458.3220872894497</v>
+        <v>458.3220872894492</v>
       </c>
       <c r="G20" t="n">
         <v>210.3481366844355</v>
       </c>
       <c r="H20" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="I20" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J20" t="n">
-        <v>50.63687938085604</v>
+        <v>167.4625357095194</v>
       </c>
       <c r="K20" t="n">
-        <v>292.4890073878225</v>
+        <v>292.4890073878213</v>
       </c>
       <c r="L20" t="n">
-        <v>723.7223471380187</v>
+        <v>723.7223471380175</v>
       </c>
       <c r="M20" t="n">
-        <v>1209.702185740073</v>
+        <v>1209.702185740072</v>
       </c>
       <c r="N20" t="n">
-        <v>1682.27485781275</v>
+        <v>1682.274857812749</v>
       </c>
       <c r="O20" t="n">
-        <v>2076.268842145981</v>
+        <v>2076.26884214598</v>
       </c>
       <c r="P20" t="n">
         <v>2380.376132540353</v>
       </c>
       <c r="Q20" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="R20" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.48601048632</v>
+        <v>2524.486010486318</v>
       </c>
       <c r="T20" t="n">
-        <v>2470.077187956014</v>
+        <v>2470.077187956013</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.826112400132</v>
+        <v>2382.826112400131</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.437988138313</v>
+        <v>2213.437988138312</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.494207838153</v>
+        <v>2018.494207838152</v>
       </c>
       <c r="X20" t="n">
-        <v>1804.055217201886</v>
+        <v>1804.055217201885</v>
       </c>
       <c r="Y20" t="n">
         <v>1578.104511619963</v>
@@ -5805,58 +5805,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.9495211382656</v>
+        <v>916.9495211382657</v>
       </c>
       <c r="C21" t="n">
-        <v>755.2458483792203</v>
+        <v>755.2458483792204</v>
       </c>
       <c r="D21" t="n">
-        <v>616.4072113694324</v>
+        <v>616.4072113694325</v>
       </c>
       <c r="E21" t="n">
-        <v>469.3792014263036</v>
+        <v>469.3792014263037</v>
       </c>
       <c r="F21" t="n">
-        <v>334.6854033761779</v>
+        <v>334.6854033761781</v>
       </c>
       <c r="G21" t="n">
-        <v>206.2452328813473</v>
+        <v>206.2452328813476</v>
       </c>
       <c r="H21" t="n">
-        <v>109.0920312136178</v>
+        <v>109.0920312136181</v>
       </c>
       <c r="I21" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J21" t="n">
-        <v>50.63687938085604</v>
+        <v>137.5897467579698</v>
       </c>
       <c r="K21" t="n">
-        <v>325.7597983731429</v>
+        <v>412.7126657502567</v>
       </c>
       <c r="L21" t="n">
-        <v>752.9399915950016</v>
+        <v>412.7126657502567</v>
       </c>
       <c r="M21" t="n">
-        <v>1309.575643195304</v>
+        <v>969.3483173505588</v>
       </c>
       <c r="N21" t="n">
-        <v>1522.505498064391</v>
+        <v>1522.50549806439</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.941209009393</v>
+        <v>1981.941209009392</v>
       </c>
       <c r="P21" t="n">
-        <v>2337.999753423496</v>
+        <v>2337.999753423495</v>
       </c>
       <c r="Q21" t="n">
-        <v>2531.843969042802</v>
+        <v>2531.843969042801</v>
       </c>
       <c r="R21" t="n">
-        <v>2489.961420074426</v>
+        <v>2489.961420074425</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.517526752879</v>
+        <v>2342.517526752878</v>
       </c>
       <c r="T21" t="n">
         <v>2154.994593067338</v>
@@ -5884,55 +5884,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.74857211484967</v>
+        <v>53.74857211484965</v>
       </c>
       <c r="C22" t="n">
-        <v>51.72375241876937</v>
+        <v>51.72375241876936</v>
       </c>
       <c r="D22" t="n">
-        <v>51.72375241876937</v>
+        <v>51.72375241876936</v>
       </c>
       <c r="E22" t="n">
-        <v>51.72375241876937</v>
+        <v>51.72375241876936</v>
       </c>
       <c r="F22" t="n">
-        <v>51.72375241876937</v>
+        <v>51.72375241876936</v>
       </c>
       <c r="G22" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="H22" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="I22" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="J22" t="n">
-        <v>50.63687938085604</v>
+        <v>50.63687938085603</v>
       </c>
       <c r="K22" t="n">
         <v>111.7663301602766</v>
       </c>
       <c r="L22" t="n">
-        <v>247.5962696286695</v>
+        <v>247.5962696286696</v>
       </c>
       <c r="M22" t="n">
         <v>402.7273430887175</v>
       </c>
       <c r="N22" t="n">
-        <v>557.4042038261429</v>
+        <v>557.404203826143</v>
       </c>
       <c r="O22" t="n">
-        <v>689.3547665710278</v>
+        <v>689.354766571028</v>
       </c>
       <c r="P22" t="n">
-        <v>780.9770921938975</v>
+        <v>780.9770921938978</v>
       </c>
       <c r="Q22" t="n">
-        <v>780.9770921938975</v>
+        <v>780.9770921938978</v>
       </c>
       <c r="R22" t="n">
-        <v>780.9770921938975</v>
+        <v>642.3241796208072</v>
       </c>
       <c r="S22" t="n">
         <v>583.6684001812032</v>
@@ -5941,7 +5941,7 @@
         <v>519.1134250522006</v>
       </c>
       <c r="U22" t="n">
-        <v>399.5275204245579</v>
+        <v>399.5275204245578</v>
       </c>
       <c r="V22" t="n">
         <v>306.3833658252199</v>
@@ -5953,7 +5953,7 @@
         <v>124.1567999224736</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.71279095699008</v>
+        <v>69.71279095699006</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1137.30951311923</v>
       </c>
       <c r="D23" t="n">
-        <v>932.0766981886927</v>
+        <v>932.0766981886929</v>
       </c>
       <c r="E23" t="n">
         <v>704.8821281370392</v>
@@ -5990,19 +5990,19 @@
         <v>167.4625357095194</v>
       </c>
       <c r="K23" t="n">
-        <v>292.4890073878225</v>
+        <v>474.7871284959958</v>
       </c>
       <c r="L23" t="n">
-        <v>723.7223471380187</v>
+        <v>906.0204682461921</v>
       </c>
       <c r="M23" t="n">
-        <v>1209.702185740073</v>
+        <v>1392.000306848247</v>
       </c>
       <c r="N23" t="n">
-        <v>1682.27485781275</v>
+        <v>1864.572978920924</v>
       </c>
       <c r="O23" t="n">
-        <v>2076.268842145981</v>
+        <v>2258.566963254155</v>
       </c>
       <c r="P23" t="n">
         <v>2380.376132540353</v>
@@ -6020,13 +6020,13 @@
         <v>2470.077187956013</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.826112400132</v>
+        <v>2382.826112400131</v>
       </c>
       <c r="V23" t="n">
         <v>2213.437988138312</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.494207838153</v>
+        <v>2018.494207838152</v>
       </c>
       <c r="X23" t="n">
         <v>1804.055217201885</v>
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>916.9495211382656</v>
+        <v>916.9495211382658</v>
       </c>
       <c r="C24" t="n">
-        <v>755.2458483792203</v>
+        <v>755.2458483792207</v>
       </c>
       <c r="D24" t="n">
-        <v>616.4072113694324</v>
+        <v>616.4072113694326</v>
       </c>
       <c r="E24" t="n">
-        <v>469.3792014263036</v>
+        <v>469.3792014263038</v>
       </c>
       <c r="F24" t="n">
-        <v>334.6854033761779</v>
+        <v>334.6854033761782</v>
       </c>
       <c r="G24" t="n">
-        <v>206.2452328813473</v>
+        <v>206.2452328813477</v>
       </c>
       <c r="H24" t="n">
         <v>109.0920312136178</v>
@@ -6066,34 +6066,34 @@
         <v>50.63687938085604</v>
       </c>
       <c r="J24" t="n">
-        <v>50.63687938085604</v>
+        <v>137.5897467579698</v>
       </c>
       <c r="K24" t="n">
-        <v>325.7597983731429</v>
+        <v>412.7126657502567</v>
       </c>
       <c r="L24" t="n">
-        <v>752.9399915950016</v>
+        <v>412.7126657502567</v>
       </c>
       <c r="M24" t="n">
-        <v>1309.575643195304</v>
+        <v>969.3483173505589</v>
       </c>
       <c r="N24" t="n">
-        <v>1522.50549806439</v>
+        <v>1554.111361334913</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.941209009392</v>
+        <v>2013.547072279915</v>
       </c>
       <c r="P24" t="n">
-        <v>2337.999753423495</v>
+        <v>2369.605616694018</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.843969042801</v>
+        <v>2531.843969042802</v>
       </c>
       <c r="R24" t="n">
-        <v>2489.961420074425</v>
+        <v>2489.961420074426</v>
       </c>
       <c r="S24" t="n">
-        <v>2342.517526752878</v>
+        <v>2342.517526752879</v>
       </c>
       <c r="T24" t="n">
         <v>2154.994593067338</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>209.1512719787324</v>
+        <v>53.74857211484967</v>
       </c>
       <c r="C25" t="n">
-        <v>207.1264522826521</v>
+        <v>51.72375241876937</v>
       </c>
       <c r="D25" t="n">
-        <v>207.1264522826521</v>
+        <v>51.72375241876937</v>
       </c>
       <c r="E25" t="n">
-        <v>207.1264522826521</v>
+        <v>51.72375241876937</v>
       </c>
       <c r="F25" t="n">
-        <v>207.1264522826521</v>
+        <v>51.72375241876937</v>
       </c>
       <c r="G25" t="n">
         <v>50.63687938085604</v>
@@ -6148,49 +6148,49 @@
         <v>50.63687938085604</v>
       </c>
       <c r="K25" t="n">
-        <v>111.7663301602766</v>
+        <v>111.7663301602767</v>
       </c>
       <c r="L25" t="n">
-        <v>247.5962696286695</v>
+        <v>247.5962696286697</v>
       </c>
       <c r="M25" t="n">
-        <v>402.7273430887175</v>
+        <v>402.7273430887176</v>
       </c>
       <c r="N25" t="n">
-        <v>557.4042038261429</v>
+        <v>557.4042038261431</v>
       </c>
       <c r="O25" t="n">
-        <v>689.3547665710278</v>
+        <v>689.354766571028</v>
       </c>
       <c r="P25" t="n">
-        <v>780.9770921938975</v>
+        <v>780.9770921938979</v>
       </c>
       <c r="Q25" t="n">
-        <v>780.9770921938975</v>
+        <v>780.9770921938979</v>
       </c>
       <c r="R25" t="n">
-        <v>780.9770921938975</v>
+        <v>642.3241796208073</v>
       </c>
       <c r="S25" t="n">
-        <v>739.0711000450858</v>
+        <v>600.4181874719956</v>
       </c>
       <c r="T25" t="n">
-        <v>674.5161249160833</v>
+        <v>519.1134250522006</v>
       </c>
       <c r="U25" t="n">
-        <v>554.9302202884406</v>
+        <v>399.5275204245579</v>
       </c>
       <c r="V25" t="n">
-        <v>461.7860656891027</v>
+        <v>306.3833658252199</v>
       </c>
       <c r="W25" t="n">
-        <v>343.2208140487412</v>
+        <v>187.8181141848584</v>
       </c>
       <c r="X25" t="n">
-        <v>279.5594997863564</v>
+        <v>124.1567999224736</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1154908208729</v>
+        <v>69.71279095699008</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.000709234315</v>
+        <v>1803.000709234314</v>
       </c>
       <c r="C26" t="n">
-        <v>1524.70964050572</v>
+        <v>1524.709640505719</v>
       </c>
       <c r="D26" t="n">
         <v>1255.52836567154</v>
       </c>
       <c r="E26" t="n">
-        <v>964.3853357162445</v>
+        <v>964.3853357162443</v>
       </c>
       <c r="F26" t="n">
-        <v>653.8768349650122</v>
+        <v>653.876834965012</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9544244563569</v>
+        <v>341.9544244563567</v>
       </c>
       <c r="H26" t="n">
         <v>118.2947072491353</v>
@@ -6224,10 +6224,10 @@
         <v>69.89560471124142</v>
       </c>
       <c r="J26" t="n">
-        <v>288.301461448724</v>
+        <v>288.3014614487241</v>
       </c>
       <c r="K26" t="n">
-        <v>697.2062546440195</v>
+        <v>697.2062546440196</v>
       </c>
       <c r="L26" t="n">
         <v>1230.019794803035</v>
@@ -6239,37 +6239,37 @@
         <v>2391.732706295405</v>
       </c>
       <c r="O26" t="n">
-        <v>2887.306891037455</v>
+        <v>2887.306891037456</v>
       </c>
       <c r="P26" t="n">
-        <v>3292.994381840646</v>
+        <v>3195.809409953446</v>
       </c>
       <c r="Q26" t="n">
-        <v>3448.857446864716</v>
+        <v>3448.857446864715</v>
       </c>
       <c r="R26" t="n">
         <v>3494.780235562071</v>
       </c>
       <c r="S26" t="n">
-        <v>3423.473817101946</v>
+        <v>3423.473817101945</v>
       </c>
       <c r="T26" t="n">
-        <v>3305.116534667998</v>
+        <v>3305.116534667997</v>
       </c>
       <c r="U26" t="n">
-        <v>3153.916999208474</v>
+        <v>3153.916999208473</v>
       </c>
       <c r="V26" t="n">
-        <v>2920.580415043013</v>
+        <v>2920.580415043012</v>
       </c>
       <c r="W26" t="n">
-        <v>2661.688174839211</v>
+        <v>2661.68817483921</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.300724299302</v>
+        <v>2383.300724299301</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.401558813737</v>
+        <v>2093.401558813736</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6309,19 @@
         <v>345.0185237035283</v>
       </c>
       <c r="L27" t="n">
-        <v>772.198716925387</v>
+        <v>772.1987169253871</v>
       </c>
       <c r="M27" t="n">
-        <v>1328.834368525689</v>
+        <v>957.0011794104206</v>
       </c>
       <c r="N27" t="n">
-        <v>1735.608439014082</v>
+        <v>1541.764223394775</v>
       </c>
       <c r="O27" t="n">
-        <v>2195.044149959083</v>
+        <v>2001.199934339777</v>
       </c>
       <c r="P27" t="n">
-        <v>2551.102694373186</v>
+        <v>2357.25847875388</v>
       </c>
       <c r="Q27" t="n">
         <v>2551.102694373186</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.4095052621736</v>
+        <v>434.4095052621739</v>
       </c>
       <c r="C28" t="n">
-        <v>368.4362256624512</v>
+        <v>368.4362256624515</v>
       </c>
       <c r="D28" t="n">
-        <v>319.0070224288112</v>
+        <v>319.0070224288115</v>
       </c>
       <c r="E28" t="n">
-        <v>270.6406981287274</v>
+        <v>270.6406981287277</v>
       </c>
       <c r="F28" t="n">
-        <v>221.8027330931018</v>
+        <v>221.8027330931021</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7674001515464</v>
+        <v>156.7674001515468</v>
       </c>
       <c r="H28" t="n">
         <v>103.1866065553572</v>
@@ -6388,10 +6388,10 @@
         <v>292.0732762242797</v>
       </c>
       <c r="L28" t="n">
-        <v>529.4834161014918</v>
+        <v>529.4834161014919</v>
       </c>
       <c r="M28" t="n">
-        <v>786.1946899703589</v>
+        <v>786.1946899703591</v>
       </c>
       <c r="N28" t="n">
         <v>1042.451751116604</v>
@@ -6415,19 +6415,19 @@
         <v>1283.465117621377</v>
       </c>
       <c r="U28" t="n">
-        <v>1099.930753090092</v>
+        <v>1099.930753090093</v>
       </c>
       <c r="V28" t="n">
-        <v>942.8381385871123</v>
+        <v>942.8381385871128</v>
       </c>
       <c r="W28" t="n">
-        <v>760.3244270431088</v>
+        <v>760.3244270431093</v>
       </c>
       <c r="X28" t="n">
-        <v>632.7146528770819</v>
+        <v>632.7146528770824</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.3221840079561</v>
+        <v>514.3221840079564</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1255.528365671541</v>
       </c>
       <c r="E29" t="n">
-        <v>964.3853357162451</v>
+        <v>964.3853357162448</v>
       </c>
       <c r="F29" t="n">
-        <v>653.8768349650127</v>
+        <v>653.8768349650121</v>
       </c>
       <c r="G29" t="n">
         <v>341.9544244563568</v>
@@ -6461,28 +6461,28 @@
         <v>69.89560471124142</v>
       </c>
       <c r="J29" t="n">
-        <v>288.301461448724</v>
+        <v>288.3014614487241</v>
       </c>
       <c r="K29" t="n">
-        <v>697.2062546440195</v>
+        <v>645.9440714541734</v>
       </c>
       <c r="L29" t="n">
-        <v>1230.019794803035</v>
+        <v>1178.757611613189</v>
       </c>
       <c r="M29" t="n">
-        <v>1720.39486192671</v>
+        <v>1766.317650624063</v>
       </c>
       <c r="N29" t="n">
-        <v>2294.547734408206</v>
+        <v>2340.47052310556</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.121919150256</v>
+        <v>2836.04470784761</v>
       </c>
       <c r="P29" t="n">
-        <v>3195.809409953448</v>
+        <v>3241.732198650802</v>
       </c>
       <c r="Q29" t="n">
-        <v>3448.857446864716</v>
+        <v>3494.780235562071</v>
       </c>
       <c r="R29" t="n">
         <v>3494.780235562071</v>
@@ -6491,7 +6491,7 @@
         <v>3423.473817101945</v>
       </c>
       <c r="T29" t="n">
-        <v>3305.116534667998</v>
+        <v>3305.116534667997</v>
       </c>
       <c r="U29" t="n">
         <v>3153.916999208474</v>
@@ -6543,22 +6543,22 @@
         <v>69.89560471124142</v>
       </c>
       <c r="K30" t="n">
-        <v>345.0185237035282</v>
+        <v>69.89560471124142</v>
       </c>
       <c r="L30" t="n">
-        <v>772.1987169253869</v>
+        <v>497.0757979331003</v>
       </c>
       <c r="M30" t="n">
-        <v>957.0011794104209</v>
+        <v>1053.711449533403</v>
       </c>
       <c r="N30" t="n">
-        <v>1541.764223394775</v>
+        <v>1541.764223394774</v>
       </c>
       <c r="O30" t="n">
-        <v>2001.199934339777</v>
+        <v>2001.199934339776</v>
       </c>
       <c r="P30" t="n">
-        <v>2357.25847875388</v>
+        <v>2357.258478753879</v>
       </c>
       <c r="Q30" t="n">
         <v>2551.102694373186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.4095052621742</v>
+        <v>434.4095052621738</v>
       </c>
       <c r="C31" t="n">
-        <v>368.4362256624519</v>
+        <v>368.4362256624514</v>
       </c>
       <c r="D31" t="n">
-        <v>319.007022428812</v>
+        <v>319.0070224288115</v>
       </c>
       <c r="E31" t="n">
-        <v>270.6406981287282</v>
+        <v>270.6406981287276</v>
       </c>
       <c r="F31" t="n">
-        <v>221.8027330931026</v>
+        <v>221.8027330931021</v>
       </c>
       <c r="G31" t="n">
-        <v>156.7674001515473</v>
+        <v>156.7674001515467</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1866065553577</v>
+        <v>103.1866065553572</v>
       </c>
       <c r="I31" t="n">
         <v>69.89560471124142</v>
       </c>
       <c r="J31" t="n">
-        <v>129.3636250360398</v>
+        <v>129.3636250360394</v>
       </c>
       <c r="K31" t="n">
-        <v>292.0732762242797</v>
+        <v>292.0732762242793</v>
       </c>
       <c r="L31" t="n">
-        <v>529.4834161014919</v>
+        <v>529.4834161014916</v>
       </c>
       <c r="M31" t="n">
-        <v>786.194689970359</v>
+        <v>786.1946899703588</v>
       </c>
       <c r="N31" t="n">
         <v>1042.451751116604</v>
@@ -6652,19 +6652,19 @@
         <v>1283.465117621377</v>
       </c>
       <c r="U31" t="n">
-        <v>1099.930753090093</v>
+        <v>1099.930753090092</v>
       </c>
       <c r="V31" t="n">
-        <v>942.838138587113</v>
+        <v>942.8381385871123</v>
       </c>
       <c r="W31" t="n">
-        <v>760.3244270431095</v>
+        <v>760.3244270431088</v>
       </c>
       <c r="X31" t="n">
-        <v>632.7146528770826</v>
+        <v>632.7146528770819</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.3221840079567</v>
+        <v>514.3221840079564</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.000709234316</v>
+        <v>1803.000709234315</v>
       </c>
       <c r="C32" t="n">
         <v>1524.70964050572</v>
@@ -6683,13 +6683,13 @@
         <v>1255.528365671541</v>
       </c>
       <c r="E32" t="n">
-        <v>964.3853357162457</v>
+        <v>964.3853357162452</v>
       </c>
       <c r="F32" t="n">
-        <v>653.8768349650131</v>
+        <v>653.8768349650129</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9544244563579</v>
+        <v>341.9544244563568</v>
       </c>
       <c r="H32" t="n">
         <v>118.2947072491353</v>
@@ -6698,28 +6698,28 @@
         <v>69.89560471124142</v>
       </c>
       <c r="J32" t="n">
-        <v>288.301461448724</v>
+        <v>288.3014614487241</v>
       </c>
       <c r="K32" t="n">
-        <v>697.2062546440195</v>
+        <v>697.2062546440197</v>
       </c>
       <c r="L32" t="n">
         <v>1230.019794803035</v>
       </c>
       <c r="M32" t="n">
-        <v>1817.579833813909</v>
+        <v>1720.394861926708</v>
       </c>
       <c r="N32" t="n">
-        <v>2391.732706295405</v>
+        <v>2294.547734408205</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.121919150256</v>
+        <v>2790.121919150255</v>
       </c>
       <c r="P32" t="n">
-        <v>3195.809409953448</v>
+        <v>3195.809409953446</v>
       </c>
       <c r="Q32" t="n">
-        <v>3448.857446864716</v>
+        <v>3448.857446864715</v>
       </c>
       <c r="R32" t="n">
         <v>3494.780235562071</v>
@@ -6728,7 +6728,7 @@
         <v>3423.473817101945</v>
       </c>
       <c r="T32" t="n">
-        <v>3305.116534667999</v>
+        <v>3305.116534667998</v>
       </c>
       <c r="U32" t="n">
         <v>3153.916999208474</v>
@@ -6737,13 +6737,13 @@
         <v>2920.580415043013</v>
       </c>
       <c r="W32" t="n">
-        <v>2661.688174839212</v>
+        <v>2661.688174839211</v>
       </c>
       <c r="X32" t="n">
         <v>2383.300724299302</v>
       </c>
       <c r="Y32" t="n">
-        <v>2093.401558813738</v>
+        <v>2093.401558813737</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>69.89560471124142</v>
       </c>
       <c r="J33" t="n">
-        <v>156.8484720883552</v>
+        <v>69.89560471124142</v>
       </c>
       <c r="K33" t="n">
-        <v>431.971391080642</v>
+        <v>345.0185237035283</v>
       </c>
       <c r="L33" t="n">
-        <v>859.1515843025006</v>
+        <v>772.1987169253871</v>
       </c>
       <c r="M33" t="n">
-        <v>1415.787235902803</v>
+        <v>1328.834368525689</v>
       </c>
       <c r="N33" t="n">
-        <v>2000.550279887157</v>
+        <v>1913.597412510044</v>
       </c>
       <c r="O33" t="n">
         <v>2195.044149959083</v>
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.4095052621739</v>
+        <v>434.4095052621735</v>
       </c>
       <c r="C34" t="n">
-        <v>368.4362256624515</v>
+        <v>368.4362256624512</v>
       </c>
       <c r="D34" t="n">
-        <v>319.0070224288115</v>
+        <v>319.0070224288113</v>
       </c>
       <c r="E34" t="n">
-        <v>270.6406981287277</v>
+        <v>270.6406981287275</v>
       </c>
       <c r="F34" t="n">
-        <v>221.8027330931022</v>
+        <v>221.802733093102</v>
       </c>
       <c r="G34" t="n">
-        <v>156.7674001515468</v>
+        <v>156.7674001515467</v>
       </c>
       <c r="H34" t="n">
-        <v>103.1866065553572</v>
+        <v>103.1866065553571</v>
       </c>
       <c r="I34" t="n">
         <v>69.89560471124142</v>
       </c>
       <c r="J34" t="n">
-        <v>129.3636250360398</v>
+        <v>129.3636250360399</v>
       </c>
       <c r="K34" t="n">
-        <v>292.0732762242797</v>
+        <v>292.0732762242798</v>
       </c>
       <c r="L34" t="n">
-        <v>529.4834161014919</v>
+        <v>529.4834161014903</v>
       </c>
       <c r="M34" t="n">
-        <v>786.194689970359</v>
+        <v>786.1946899703576</v>
       </c>
       <c r="N34" t="n">
-        <v>1042.451751116603</v>
+        <v>1042.451751116602</v>
       </c>
       <c r="O34" t="n">
-        <v>1275.982514270308</v>
+        <v>1275.982514270307</v>
       </c>
       <c r="P34" t="n">
-        <v>1469.185040301997</v>
+        <v>1469.185040301996</v>
       </c>
       <c r="Q34" t="n">
-        <v>1552.833227340969</v>
+        <v>1552.833227340968</v>
       </c>
       <c r="R34" t="n">
-        <v>1517.823004706476</v>
+        <v>1517.823004706475</v>
       </c>
       <c r="S34" t="n">
-        <v>1411.968552654022</v>
+        <v>1411.968552654021</v>
       </c>
       <c r="T34" t="n">
         <v>1283.465117621377</v>
@@ -6892,16 +6892,16 @@
         <v>1099.930753090092</v>
       </c>
       <c r="V34" t="n">
-        <v>942.8381385871123</v>
+        <v>942.8381385871119</v>
       </c>
       <c r="W34" t="n">
-        <v>760.3244270431088</v>
+        <v>760.3244270431084</v>
       </c>
       <c r="X34" t="n">
-        <v>632.7146528770819</v>
+        <v>632.7146528770814</v>
       </c>
       <c r="Y34" t="n">
-        <v>514.3221840079564</v>
+        <v>514.3221840079559</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1433.500257951934</v>
+        <v>1433.500257951936</v>
       </c>
       <c r="C35" t="n">
-        <v>1206.136354762111</v>
+        <v>1206.136354762113</v>
       </c>
       <c r="D35" t="n">
-        <v>987.8822454667047</v>
+        <v>987.8822454667062</v>
       </c>
       <c r="E35" t="n">
-        <v>747.6663810501815</v>
+        <v>747.6663810501827</v>
       </c>
       <c r="F35" t="n">
-        <v>488.0850458377217</v>
+        <v>488.0850458377231</v>
       </c>
       <c r="G35" t="n">
         <v>227.0898008678392</v>
       </c>
       <c r="H35" t="n">
-        <v>54.35724919939019</v>
+        <v>54.35724919939022</v>
       </c>
       <c r="I35" t="n">
-        <v>54.35724919939019</v>
+        <v>54.35724919939022</v>
       </c>
       <c r="J35" t="n">
-        <v>171.1829055280535</v>
+        <v>171.1829055280539</v>
       </c>
       <c r="K35" t="n">
-        <v>478.5074983145298</v>
+        <v>478.5074983145303</v>
       </c>
       <c r="L35" t="n">
-        <v>909.7408380647259</v>
+        <v>909.7408380647266</v>
       </c>
       <c r="M35" t="n">
         <v>1395.720676666781</v>
       </c>
       <c r="N35" t="n">
-        <v>1868.293348739457</v>
+        <v>1868.293348739458</v>
       </c>
       <c r="O35" t="n">
-        <v>2262.287333072688</v>
+        <v>2262.287333072689</v>
       </c>
       <c r="P35" t="n">
-        <v>2566.394623467061</v>
+        <v>2566.394623467062</v>
       </c>
       <c r="Q35" t="n">
-        <v>2717.862459969509</v>
+        <v>2717.862459969511</v>
       </c>
       <c r="R35" t="n">
-        <v>2717.862459969509</v>
+        <v>2717.862459969511</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.483207048157</v>
+        <v>2697.483207048158</v>
       </c>
       <c r="T35" t="n">
-        <v>2630.053090152982</v>
+        <v>2630.053090152983</v>
       </c>
       <c r="U35" t="n">
-        <v>2529.78072023223</v>
+        <v>2529.780720232231</v>
       </c>
       <c r="V35" t="n">
-        <v>2347.371301605541</v>
+        <v>2347.371301605543</v>
       </c>
       <c r="W35" t="n">
-        <v>2139.406226940512</v>
+        <v>2139.406226940514</v>
       </c>
       <c r="X35" t="n">
-        <v>1911.945941939375</v>
+        <v>1911.945941939377</v>
       </c>
       <c r="Y35" t="n">
-        <v>1672.973941992583</v>
+        <v>1672.973941992585</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>112.812401032152</v>
       </c>
       <c r="I36" t="n">
-        <v>54.35724919939019</v>
+        <v>54.35724919939022</v>
       </c>
       <c r="J36" t="n">
-        <v>54.35724919939019</v>
+        <v>54.35724919939022</v>
       </c>
       <c r="K36" t="n">
-        <v>329.4801681916771</v>
+        <v>54.35724919939022</v>
       </c>
       <c r="L36" t="n">
-        <v>756.6603614135357</v>
+        <v>384.8271722982674</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.296013013838</v>
+        <v>941.4628238985696</v>
       </c>
       <c r="N36" t="n">
         <v>1526.225867882924</v>
       </c>
       <c r="O36" t="n">
-        <v>1985.661578827926</v>
+        <v>1985.661578827925</v>
       </c>
       <c r="P36" t="n">
         <v>2341.720123242029</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.16515872053982</v>
+        <v>86.16515872053985</v>
       </c>
       <c r="C37" t="n">
-        <v>71.11904465959003</v>
+        <v>71.11904465959006</v>
       </c>
       <c r="D37" t="n">
-        <v>71.11904465959003</v>
+        <v>71.11904465959006</v>
       </c>
       <c r="E37" t="n">
-        <v>71.11904465959003</v>
+        <v>71.11904465959006</v>
       </c>
       <c r="F37" t="n">
-        <v>71.11904465959003</v>
+        <v>71.11904465959006</v>
       </c>
       <c r="G37" t="n">
-        <v>57.01087725680721</v>
+        <v>57.01087725680723</v>
       </c>
       <c r="H37" t="n">
-        <v>54.35724919939019</v>
+        <v>54.35724919939022</v>
       </c>
       <c r="I37" t="n">
-        <v>54.35724919939019</v>
+        <v>54.35724919939022</v>
       </c>
       <c r="J37" t="n">
-        <v>54.35724919939019</v>
+        <v>54.35724919939022</v>
       </c>
       <c r="K37" t="n">
-        <v>115.4866999788107</v>
+        <v>115.4866999788108</v>
       </c>
       <c r="L37" t="n">
-        <v>251.3166394472037</v>
+        <v>251.3166394472038</v>
       </c>
       <c r="M37" t="n">
-        <v>406.4477129072516</v>
+        <v>406.4477129072518</v>
       </c>
       <c r="N37" t="n">
-        <v>561.124573644677</v>
+        <v>561.1245736446773</v>
       </c>
       <c r="O37" t="n">
-        <v>693.0751363895619</v>
+        <v>693.0751363895622</v>
       </c>
       <c r="P37" t="n">
-        <v>784.6974620124316</v>
+        <v>784.6974620124321</v>
       </c>
       <c r="Q37" t="n">
-        <v>784.6974620124316</v>
+        <v>784.6974620124321</v>
       </c>
       <c r="R37" t="n">
-        <v>784.6974620124316</v>
+        <v>784.6974620124321</v>
       </c>
       <c r="S37" t="n">
-        <v>707.2340473409797</v>
+        <v>729.7701754987509</v>
       </c>
       <c r="T37" t="n">
-        <v>629.6577778471077</v>
+        <v>652.1939060048788</v>
       </c>
       <c r="U37" t="n">
-        <v>497.0505788545955</v>
+        <v>519.5867070123667</v>
       </c>
       <c r="V37" t="n">
-        <v>390.885129890388</v>
+        <v>413.4212580481592</v>
       </c>
       <c r="W37" t="n">
-        <v>259.2985838851571</v>
+        <v>281.8347120429282</v>
       </c>
       <c r="X37" t="n">
-        <v>182.6159752579027</v>
+        <v>205.1521034156739</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.1506719275497</v>
+        <v>115.1506719275498</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1206.136354762111</v>
       </c>
       <c r="D38" t="n">
-        <v>987.8822454667044</v>
+        <v>987.8822454667047</v>
       </c>
       <c r="E38" t="n">
-        <v>747.6663810501811</v>
+        <v>747.6663810501815</v>
       </c>
       <c r="F38" t="n">
         <v>488.0850458377217</v>
@@ -7172,16 +7172,16 @@
         <v>54.35724919939019</v>
       </c>
       <c r="J38" t="n">
-        <v>171.1829055280535</v>
+        <v>171.1829055280529</v>
       </c>
       <c r="K38" t="n">
-        <v>478.5074983145298</v>
+        <v>478.5074983145292</v>
       </c>
       <c r="L38" t="n">
-        <v>909.7408380647259</v>
+        <v>909.7408380647255</v>
       </c>
       <c r="M38" t="n">
-        <v>1395.720676666781</v>
+        <v>1395.72067666678</v>
       </c>
       <c r="N38" t="n">
         <v>1868.293348739457</v>
@@ -7199,7 +7199,7 @@
         <v>2717.862459969509</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.483207048156</v>
+        <v>2697.483207048157</v>
       </c>
       <c r="T38" t="n">
         <v>2630.053090152981</v>
@@ -7208,13 +7208,13 @@
         <v>2529.78072023223</v>
       </c>
       <c r="V38" t="n">
-        <v>2347.371301605541</v>
+        <v>2347.371301605542</v>
       </c>
       <c r="W38" t="n">
         <v>2139.406226940512</v>
       </c>
       <c r="X38" t="n">
-        <v>1911.945941939375</v>
+        <v>1911.945941939376</v>
       </c>
       <c r="Y38" t="n">
         <v>1672.973941992583</v>
@@ -7242,7 +7242,7 @@
         <v>338.405773194712</v>
       </c>
       <c r="G39" t="n">
-        <v>209.9656026998815</v>
+        <v>209.9656026998814</v>
       </c>
       <c r="H39" t="n">
         <v>112.812401032152</v>
@@ -7251,25 +7251,25 @@
         <v>54.35724919939019</v>
       </c>
       <c r="J39" t="n">
-        <v>54.35724919939019</v>
+        <v>141.310116576504</v>
       </c>
       <c r="K39" t="n">
-        <v>54.35724919939019</v>
+        <v>416.433035568791</v>
       </c>
       <c r="L39" t="n">
-        <v>481.5374424212488</v>
+        <v>843.6132287906497</v>
       </c>
       <c r="M39" t="n">
-        <v>1038.173094021551</v>
+        <v>1400.248880390952</v>
       </c>
       <c r="N39" t="n">
-        <v>1622.936138005905</v>
+        <v>1526.225867882924</v>
       </c>
       <c r="O39" t="n">
-        <v>2082.371848950906</v>
+        <v>1985.661578827925</v>
       </c>
       <c r="P39" t="n">
-        <v>2438.43039336501</v>
+        <v>2341.720123242029</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.564338861335</v>
@@ -7333,46 +7333,46 @@
         <v>54.35724919939019</v>
       </c>
       <c r="K40" t="n">
-        <v>115.4866999788107</v>
+        <v>115.4866999788108</v>
       </c>
       <c r="L40" t="n">
-        <v>251.3166394472037</v>
+        <v>251.3166394472038</v>
       </c>
       <c r="M40" t="n">
-        <v>406.4477129072516</v>
+        <v>406.4477129072517</v>
       </c>
       <c r="N40" t="n">
-        <v>561.124573644677</v>
+        <v>561.1245736446772</v>
       </c>
       <c r="O40" t="n">
-        <v>693.0751363895619</v>
+        <v>693.0751363895622</v>
       </c>
       <c r="P40" t="n">
-        <v>784.6974620124316</v>
+        <v>784.6974620124321</v>
       </c>
       <c r="Q40" t="n">
-        <v>784.6974620124316</v>
+        <v>766.4013561356369</v>
       </c>
       <c r="R40" t="n">
-        <v>784.6974620124316</v>
+        <v>766.4013561356369</v>
       </c>
       <c r="S40" t="n">
-        <v>729.7701754987504</v>
+        <v>711.4740696219557</v>
       </c>
       <c r="T40" t="n">
-        <v>652.1939060048784</v>
+        <v>629.6577778471077</v>
       </c>
       <c r="U40" t="n">
-        <v>519.5867070123662</v>
+        <v>497.0505788545955</v>
       </c>
       <c r="V40" t="n">
-        <v>413.4212580481587</v>
+        <v>390.885129890388</v>
       </c>
       <c r="W40" t="n">
-        <v>281.8347120429278</v>
+        <v>259.2985838851571</v>
       </c>
       <c r="X40" t="n">
-        <v>205.1521034156735</v>
+        <v>182.6159752579027</v>
       </c>
       <c r="Y40" t="n">
         <v>115.1506719275497</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1398.620835852888</v>
+        <v>1269.915202064502</v>
       </c>
       <c r="C41" t="n">
-        <v>1150.808800677136</v>
+        <v>1022.10316688875</v>
       </c>
       <c r="D41" t="n">
-        <v>912.1065593958006</v>
+        <v>876.4940897560429</v>
       </c>
       <c r="E41" t="n">
-        <v>809.010777007968</v>
+        <v>615.8300933535905</v>
       </c>
       <c r="F41" t="n">
-        <v>528.9813098095792</v>
+        <v>335.8006261552019</v>
       </c>
       <c r="G41" t="n">
-        <v>247.5379328537682</v>
+        <v>54.35724919939019</v>
       </c>
       <c r="H41" t="n">
         <v>54.35724919939019</v>
@@ -7409,16 +7409,16 @@
         <v>54.35724919939019</v>
       </c>
       <c r="J41" t="n">
-        <v>171.1829055280535</v>
+        <v>171.1829055280536</v>
       </c>
       <c r="K41" t="n">
-        <v>478.5074983145296</v>
+        <v>478.5074983145292</v>
       </c>
       <c r="L41" t="n">
-        <v>909.7408380647259</v>
+        <v>909.7408380647255</v>
       </c>
       <c r="M41" t="n">
-        <v>1395.720676666781</v>
+        <v>1395.72067666678</v>
       </c>
       <c r="N41" t="n">
         <v>1868.293348739457</v>
@@ -7436,25 +7436,25 @@
         <v>2717.862459969509</v>
       </c>
       <c r="S41" t="n">
-        <v>2717.862459969509</v>
+        <v>2677.035075062227</v>
       </c>
       <c r="T41" t="n">
-        <v>2717.862459969509</v>
+        <v>2589.156826181124</v>
       </c>
       <c r="U41" t="n">
-        <v>2597.141958062829</v>
+        <v>2468.436324274443</v>
       </c>
       <c r="V41" t="n">
-        <v>2394.284407450211</v>
+        <v>2265.578773661825</v>
       </c>
       <c r="W41" t="n">
-        <v>2165.871200799253</v>
+        <v>2037.165567010867</v>
       </c>
       <c r="X41" t="n">
-        <v>1917.962783812187</v>
+        <v>1789.257150023801</v>
       </c>
       <c r="Y41" t="n">
-        <v>1658.542651879466</v>
+        <v>1529.83701809108</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7479,7 @@
         <v>338.405773194712</v>
       </c>
       <c r="G42" t="n">
-        <v>209.9656026998815</v>
+        <v>209.9656026998814</v>
       </c>
       <c r="H42" t="n">
         <v>112.812401032152</v>
@@ -7488,22 +7488,22 @@
         <v>54.35724919939019</v>
       </c>
       <c r="J42" t="n">
-        <v>54.35724919939019</v>
+        <v>141.310116576504</v>
       </c>
       <c r="K42" t="n">
-        <v>329.4801681916771</v>
+        <v>141.310116576504</v>
       </c>
       <c r="L42" t="n">
-        <v>756.6603614135357</v>
+        <v>568.4903097983628</v>
       </c>
       <c r="M42" t="n">
-        <v>941.4628238985699</v>
+        <v>1125.125961398665</v>
       </c>
       <c r="N42" t="n">
-        <v>1526.225867882924</v>
+        <v>1709.88900538302</v>
       </c>
       <c r="O42" t="n">
-        <v>1985.661578827926</v>
+        <v>1985.661578827925</v>
       </c>
       <c r="P42" t="n">
         <v>2341.720123242029</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>205.5179148804177</v>
+        <v>205.5179148804179</v>
       </c>
       <c r="C43" t="n">
-        <v>170.0236688335389</v>
+        <v>170.023668833539</v>
       </c>
       <c r="D43" t="n">
-        <v>151.0734991527425</v>
+        <v>151.0734991527426</v>
       </c>
       <c r="E43" t="n">
-        <v>133.1862084055022</v>
+        <v>133.1862084055024</v>
       </c>
       <c r="F43" t="n">
-        <v>114.8272769227202</v>
+        <v>114.8272769227203</v>
       </c>
       <c r="G43" t="n">
-        <v>80.27097753400841</v>
+        <v>80.27097753400845</v>
       </c>
       <c r="H43" t="n">
-        <v>57.16921749066238</v>
+        <v>57.16921749066239</v>
       </c>
       <c r="I43" t="n">
         <v>54.35724919939019</v>
@@ -7570,22 +7570,22 @@
         <v>54.35724919939019</v>
       </c>
       <c r="K43" t="n">
-        <v>117.5141705620774</v>
+        <v>115.4866999788108</v>
       </c>
       <c r="L43" t="n">
-        <v>253.3441100304703</v>
+        <v>251.3166394472038</v>
       </c>
       <c r="M43" t="n">
-        <v>408.4751834905182</v>
+        <v>406.4477129072517</v>
       </c>
       <c r="N43" t="n">
-        <v>563.1520442279436</v>
+        <v>561.1245736446772</v>
       </c>
       <c r="O43" t="n">
-        <v>826.5553081667897</v>
+        <v>713.034620342676</v>
       </c>
       <c r="P43" t="n">
-        <v>1049.630334983621</v>
+        <v>936.1096471595071</v>
       </c>
       <c r="Q43" t="n">
         <v>1049.630334983621</v>
@@ -7594,25 +7594,25 @@
         <v>1045.099145901971</v>
       </c>
       <c r="S43" t="n">
-        <v>969.7237274023607</v>
+        <v>969.7237274023613</v>
       </c>
       <c r="T43" t="n">
-        <v>871.6993259225596</v>
+        <v>871.6993259225602</v>
       </c>
       <c r="U43" t="n">
-        <v>718.6439949441185</v>
+        <v>718.643994944119</v>
       </c>
       <c r="V43" t="n">
-        <v>592.0304139939821</v>
+        <v>592.0304139939824</v>
       </c>
       <c r="W43" t="n">
-        <v>439.995736002822</v>
+        <v>439.9957360028223</v>
       </c>
       <c r="X43" t="n">
-        <v>342.8649953896386</v>
+        <v>342.8649953896389</v>
       </c>
       <c r="Y43" t="n">
-        <v>254.9515600733566</v>
+        <v>254.9515600733569</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1398.620835852889</v>
+        <v>1269.915202064501</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.808800677137</v>
+        <v>1022.103166888749</v>
       </c>
       <c r="D44" t="n">
-        <v>912.1065593958012</v>
+        <v>783.4009256074137</v>
       </c>
       <c r="E44" t="n">
-        <v>651.4425629933489</v>
+        <v>522.7369292049614</v>
       </c>
       <c r="F44" t="n">
-        <v>371.4130957949601</v>
+        <v>242.7074620065728</v>
       </c>
       <c r="G44" t="n">
-        <v>89.96971883914814</v>
+        <v>72.27731818444059</v>
       </c>
       <c r="H44" t="n">
-        <v>54.35724919939019</v>
+        <v>72.27731818444059</v>
       </c>
       <c r="I44" t="n">
         <v>54.35724919939019</v>
       </c>
       <c r="J44" t="n">
-        <v>171.1829055280535</v>
+        <v>171.1829055280536</v>
       </c>
       <c r="K44" t="n">
-        <v>478.5074983145298</v>
+        <v>478.5074983145299</v>
       </c>
       <c r="L44" t="n">
-        <v>909.7408380647259</v>
+        <v>909.7408380647262</v>
       </c>
       <c r="M44" t="n">
         <v>1395.720676666781</v>
@@ -7673,25 +7673,25 @@
         <v>2717.862459969509</v>
       </c>
       <c r="S44" t="n">
-        <v>2717.862459969509</v>
+        <v>2677.035075062227</v>
       </c>
       <c r="T44" t="n">
-        <v>2717.862459969509</v>
+        <v>2589.156826181124</v>
       </c>
       <c r="U44" t="n">
-        <v>2597.14195806283</v>
+        <v>2468.436324274443</v>
       </c>
       <c r="V44" t="n">
-        <v>2394.284407450212</v>
+        <v>2265.578773661825</v>
       </c>
       <c r="W44" t="n">
-        <v>2165.871200799254</v>
+        <v>2037.165567010867</v>
       </c>
       <c r="X44" t="n">
-        <v>1917.962783812188</v>
+        <v>1789.257150023801</v>
       </c>
       <c r="Y44" t="n">
-        <v>1658.542651879467</v>
+        <v>1529.837018091079</v>
       </c>
     </row>
     <row r="45">
@@ -7716,7 +7716,7 @@
         <v>338.405773194712</v>
       </c>
       <c r="G45" t="n">
-        <v>209.9656026998815</v>
+        <v>209.9656026998814</v>
       </c>
       <c r="H45" t="n">
         <v>112.812401032152</v>
@@ -7725,22 +7725,22 @@
         <v>54.35724919939019</v>
       </c>
       <c r="J45" t="n">
-        <v>54.35724919939019</v>
+        <v>141.310116576504</v>
       </c>
       <c r="K45" t="n">
-        <v>313.7055234905124</v>
+        <v>416.433035568791</v>
       </c>
       <c r="L45" t="n">
-        <v>740.885716712371</v>
+        <v>843.6132287906497</v>
       </c>
       <c r="M45" t="n">
-        <v>1297.521368312673</v>
+        <v>941.4628238985696</v>
       </c>
       <c r="N45" t="n">
-        <v>1882.284412297028</v>
+        <v>1526.225867882924</v>
       </c>
       <c r="O45" t="n">
-        <v>2341.720123242029</v>
+        <v>1985.661578827925</v>
       </c>
       <c r="P45" t="n">
         <v>2341.720123242029</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>205.5179148804177</v>
+        <v>205.5179148804183</v>
       </c>
       <c r="C46" t="n">
-        <v>170.0236688335389</v>
+        <v>170.0236688335394</v>
       </c>
       <c r="D46" t="n">
-        <v>151.0734991527425</v>
+        <v>151.0734991527429</v>
       </c>
       <c r="E46" t="n">
-        <v>133.1862084055022</v>
+        <v>133.1862084055026</v>
       </c>
       <c r="F46" t="n">
-        <v>114.8272769227202</v>
+        <v>114.8272769227205</v>
       </c>
       <c r="G46" t="n">
-        <v>80.27097753400841</v>
+        <v>80.27097753400858</v>
       </c>
       <c r="H46" t="n">
-        <v>57.16921749066238</v>
+        <v>57.16921749066245</v>
       </c>
       <c r="I46" t="n">
         <v>54.35724919939019</v>
       </c>
       <c r="J46" t="n">
-        <v>56.3847197826569</v>
+        <v>54.35724919939019</v>
       </c>
       <c r="K46" t="n">
-        <v>117.5141705620775</v>
+        <v>115.4866999788108</v>
       </c>
       <c r="L46" t="n">
-        <v>253.3441100304704</v>
+        <v>382.7693406411649</v>
       </c>
       <c r="M46" t="n">
-        <v>539.9278846844795</v>
+        <v>539.9278846844807</v>
       </c>
       <c r="N46" t="n">
-        <v>826.0574466158661</v>
+        <v>694.6047454219062</v>
       </c>
       <c r="O46" t="n">
-        <v>958.008009360751</v>
+        <v>958.0080093607522</v>
       </c>
       <c r="P46" t="n">
-        <v>1049.630334983621</v>
+        <v>1049.630334983622</v>
       </c>
       <c r="Q46" t="n">
-        <v>1049.630334983621</v>
+        <v>1049.630334983622</v>
       </c>
       <c r="R46" t="n">
-        <v>1045.099145901971</v>
+        <v>1045.099145901972</v>
       </c>
       <c r="S46" t="n">
-        <v>969.7237274023607</v>
+        <v>969.723727402362</v>
       </c>
       <c r="T46" t="n">
-        <v>871.6993259225596</v>
+        <v>871.6993259225608</v>
       </c>
       <c r="U46" t="n">
-        <v>718.6439949441185</v>
+        <v>718.6439949441195</v>
       </c>
       <c r="V46" t="n">
-        <v>592.0304139939821</v>
+        <v>592.030413993983</v>
       </c>
       <c r="W46" t="n">
-        <v>439.995736002822</v>
+        <v>439.9957360028229</v>
       </c>
       <c r="X46" t="n">
-        <v>342.8649953896386</v>
+        <v>342.8649953896394</v>
       </c>
       <c r="Y46" t="n">
-        <v>254.9515600733566</v>
+        <v>254.9515600733573</v>
       </c>
     </row>
   </sheetData>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.8198862603996</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>476.8257761079981</v>
+        <v>358.8200626447019</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>76.08716677372973</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>48.60075597653419</v>
       </c>
       <c r="P12" t="n">
-        <v>234.2147573168049</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.29823605730428</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8936,13 +8936,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>537.4093001136341</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>387.1966190009836</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
         <v>123.0116732089378</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>159.7248275634068</v>
+        <v>159.7248275634051</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>101.8198862603996</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>355.2552335349285</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>358.8200626447023</v>
       </c>
       <c r="M17" t="n">
         <v>584.3675935406823</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>337.7985617910865</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>355.527065562705</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.29823605730428</v>
+        <v>77.29823605730425</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.8198862603996</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>355.2552335349285</v>
+        <v>237.2495200716309</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9477,19 +9477,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>76.08716677372973</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>50.59730422595278</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>247.5560067322086</v>
+        <v>591.2199722319498</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9638,7 +9638,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>237.2495200716322</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9653,7 +9653,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>234.1988043520448</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>76.08716677372973</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>50.59730422595272</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>247.5560067322077</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>241.1753596419348</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>76.08716677372973</v>
+        <v>76.08716677372968</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9960,10 +9960,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>229.8275029605872</v>
       </c>
       <c r="N27" t="n">
-        <v>443.3582447315064</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.29823605730428</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,19 +10188,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>76.08716677372973</v>
+        <v>76.08716677372963</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>65.90286974030469</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>229.8275029605879</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>525.4579451082531</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.08716677372968</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10440,13 +10440,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>244.4029939758337</v>
+        <v>332.2341731446349</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.29823605730428</v>
+        <v>77.29823605730422</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,19 +10662,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>76.08716677372973</v>
+        <v>76.08716677372968</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>65.90286974030477</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>384.4053073561317</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>247.5560067322077</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236952</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>76.08716677372973</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>65.90286974030485</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>159.7248275634051</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>175.413332518239</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425134</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11136,22 +11136,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>76.08716677372973</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>65.90286974030477</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>229.827502960588</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>326.5026943525812</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11306,7 +11306,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355787</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
@@ -11373,16 +11373,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>76.08716677372973</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>327.8708235697212</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>141.9963237917855</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11391,7 +11391,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>54.3465038641373</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.4968410836276</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>275.5081580413093</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>288.2315996557429</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>307.40341574372</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.8031864035687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.80256397396424</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>231.0032183238067</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>140.2325483282517</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23498,16 +23498,16 @@
         <v>275.5081580413093</v>
       </c>
       <c r="D14" t="n">
-        <v>265.9553220915661</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.2315996557428</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>308.8031864035687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>117.1737096096081</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>275.6035760345102</v>
+        <v>61.69782167637425</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.250200605492864e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>92.16223250714199</v>
       </c>
       <c r="E41" t="n">
-        <v>155.9925318744736</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>191.2488768178342</v>
       </c>
       <c r="I41" t="n">
-        <v>17.74086829519986</v>
+        <v>17.74086829519985</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.41911105820913</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>86.99946639229296</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>109.9031008023421</v>
       </c>
       <c r="H44" t="n">
-        <v>155.9925318744738</v>
+        <v>191.2488768178343</v>
       </c>
       <c r="I44" t="n">
-        <v>17.74086829519985</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.41911105820913</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>86.99946639229296</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897072.4496898677</v>
+        <v>897072.4496898676</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>897072.4496898677</v>
+        <v>897072.4496898676</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897072.4496898677</v>
+        <v>897072.4496898676</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874299.33714223</v>
+        <v>874299.3371422299</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>874299.33714223</v>
+        <v>874299.3371422299</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>612701.3052058435</v>
+        <v>612701.3052058433</v>
       </c>
       <c r="C2" t="n">
-        <v>612701.3052058435</v>
+        <v>612701.3052058434</v>
       </c>
       <c r="D2" t="n">
         <v>612701.3052058435</v>
@@ -26323,37 +26323,37 @@
         <v>554606.7964306658</v>
       </c>
       <c r="F2" t="n">
-        <v>554606.7964306661</v>
+        <v>554606.7964306657</v>
       </c>
       <c r="G2" t="n">
-        <v>614099.248395346</v>
+        <v>614099.2483953463</v>
       </c>
       <c r="H2" t="n">
         <v>614099.248395346</v>
       </c>
       <c r="I2" t="n">
-        <v>614099.2483953459</v>
+        <v>614099.2483953458</v>
       </c>
       <c r="J2" t="n">
+        <v>614099.248395344</v>
+      </c>
+      <c r="K2" t="n">
         <v>614099.2483953445</v>
       </c>
-      <c r="K2" t="n">
-        <v>614099.2483953444</v>
-      </c>
       <c r="L2" t="n">
-        <v>614099.248395344</v>
+        <v>614099.2483953438</v>
       </c>
       <c r="M2" t="n">
-        <v>614099.2483953456</v>
+        <v>614099.2483953455</v>
       </c>
       <c r="N2" t="n">
-        <v>614099.2483953456</v>
+        <v>614099.2483953453</v>
       </c>
       <c r="O2" t="n">
         <v>594921.8904604923</v>
       </c>
       <c r="P2" t="n">
-        <v>594921.8904604928</v>
+        <v>594921.890460492</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377690.7912667709</v>
+        <v>377690.7912667711</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>50647.18024368452</v>
+        <v>50647.18024368451</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94424.45431697645</v>
+        <v>94424.45431697641</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>50647.18024368451</v>
+        <v>50647.18024368455</v>
       </c>
       <c r="M3" t="n">
-        <v>149667.9718848512</v>
+        <v>149667.9718848513</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>15242.90965482877</v>
+        <v>15242.90965482874</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,22 +26430,22 @@
         <v>269058.5985461089</v>
       </c>
       <c r="G4" t="n">
+        <v>311269.4182932111</v>
+      </c>
+      <c r="H4" t="n">
         <v>311269.4182932112</v>
       </c>
-      <c r="H4" t="n">
-        <v>311269.4182932113</v>
-      </c>
       <c r="I4" t="n">
-        <v>311269.4182932113</v>
+        <v>311269.4182932112</v>
       </c>
       <c r="J4" t="n">
-        <v>309610.1846989163</v>
+        <v>309610.1846989162</v>
       </c>
       <c r="K4" t="n">
-        <v>309610.1846989163</v>
+        <v>309610.1846989161</v>
       </c>
       <c r="L4" t="n">
-        <v>309610.1846989163</v>
+        <v>309610.1846989162</v>
       </c>
       <c r="M4" t="n">
         <v>308588.4313943188</v>
@@ -26457,7 +26457,7 @@
         <v>294988.7594480372</v>
       </c>
       <c r="P4" t="n">
-        <v>294988.7594480372</v>
+        <v>294988.7594480371</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>50003.05640194759</v>
+        <v>50003.0564019476</v>
       </c>
       <c r="F5" t="n">
-        <v>50003.05640194762</v>
+        <v>50003.0564019476</v>
       </c>
       <c r="G5" t="n">
-        <v>55325.3786468305</v>
+        <v>55325.37864683049</v>
       </c>
       <c r="H5" t="n">
-        <v>55325.3786468305</v>
+        <v>55325.37864683049</v>
       </c>
       <c r="I5" t="n">
-        <v>55325.3786468305</v>
+        <v>55325.37864683051</v>
       </c>
       <c r="J5" t="n">
         <v>64639.6876530405</v>
@@ -26500,7 +26500,7 @@
         <v>64639.6876530405</v>
       </c>
       <c r="M5" t="n">
-        <v>57069.11938491584</v>
+        <v>57069.11938491587</v>
       </c>
       <c r="N5" t="n">
         <v>57069.11938491584</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177466.2987915358</v>
+        <v>177461.9302190683</v>
       </c>
       <c r="C6" t="n">
-        <v>177466.2987915358</v>
+        <v>177461.9302190685</v>
       </c>
       <c r="D6" t="n">
-        <v>177466.2987915358</v>
+        <v>177461.9302190686</v>
       </c>
       <c r="E6" t="n">
-        <v>-142145.6497841616</v>
+        <v>-142331.5636965514</v>
       </c>
       <c r="F6" t="n">
-        <v>235545.1414826094</v>
+        <v>235359.2275702195</v>
       </c>
       <c r="G6" t="n">
-        <v>196857.2712116197</v>
+        <v>196857.2712116201</v>
       </c>
       <c r="H6" t="n">
-        <v>247504.4514553042</v>
+        <v>247504.4514553043</v>
       </c>
       <c r="I6" t="n">
-        <v>247504.4514553041</v>
+        <v>247504.451455304</v>
       </c>
       <c r="J6" t="n">
-        <v>145424.9217264112</v>
+        <v>145424.9217264109</v>
       </c>
       <c r="K6" t="n">
-        <v>239849.3760433876</v>
+        <v>239849.3760433879</v>
       </c>
       <c r="L6" t="n">
-        <v>189202.1957997027</v>
+        <v>189202.1957997025</v>
       </c>
       <c r="M6" t="n">
-        <v>98773.72573125975</v>
+        <v>98773.72573125949</v>
       </c>
       <c r="N6" t="n">
-        <v>248441.697616111</v>
+        <v>248441.6976161107</v>
       </c>
       <c r="O6" t="n">
-        <v>229322.9654405563</v>
+        <v>229263.0361970099</v>
       </c>
       <c r="P6" t="n">
-        <v>244565.8750953855</v>
+        <v>244505.9458518384</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="F2" t="n">
         <v>102.6062630392114</v>
@@ -26707,10 +26707,10 @@
         <v>165.915238343817</v>
       </c>
       <c r="J2" t="n">
+        <v>102.6062630392114</v>
+      </c>
+      <c r="K2" t="n">
         <v>102.6062630392113</v>
-      </c>
-      <c r="K2" t="n">
-        <v>102.6062630392114</v>
       </c>
       <c r="L2" t="n">
         <v>102.6062630392114</v>
@@ -26725,7 +26725,7 @@
         <v>132.7805062565265</v>
       </c>
       <c r="P2" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464938</v>
       </c>
       <c r="F3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464937</v>
       </c>
       <c r="G3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464937</v>
       </c>
       <c r="H3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464937</v>
       </c>
       <c r="I3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464938</v>
       </c>
       <c r="J3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464938</v>
       </c>
       <c r="K3" t="n">
-        <v>132.7074378464935</v>
+        <v>132.707437846494</v>
       </c>
       <c r="L3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464938</v>
       </c>
       <c r="M3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464938</v>
       </c>
       <c r="N3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464938</v>
       </c>
       <c r="O3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464938</v>
       </c>
       <c r="P3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464938</v>
       </c>
     </row>
     <row r="4">
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.9609922607001</v>
+        <v>632.9609922607003</v>
       </c>
       <c r="F4" t="n">
-        <v>632.9609922607006</v>
+        <v>632.9609922607003</v>
       </c>
       <c r="G4" t="n">
-        <v>632.9609922607006</v>
+        <v>632.9609922607003</v>
       </c>
       <c r="H4" t="n">
-        <v>632.9609922607006</v>
+        <v>632.9609922607003</v>
       </c>
       <c r="I4" t="n">
         <v>632.9609922607006</v>
       </c>
       <c r="J4" t="n">
-        <v>873.6950588905178</v>
+        <v>873.6950588905177</v>
       </c>
       <c r="K4" t="n">
-        <v>873.6950588905178</v>
+        <v>873.6950588905177</v>
       </c>
       <c r="L4" t="n">
-        <v>873.6950588905178</v>
+        <v>873.6950588905177</v>
       </c>
       <c r="M4" t="n">
-        <v>679.4656149923774</v>
+        <v>679.4656149923777</v>
       </c>
       <c r="N4" t="n">
         <v>679.4656149923774</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>63.30897530460565</v>
+        <v>63.30897530460564</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.29728773460569</v>
+        <v>39.29728773460567</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>63.30897530460564</v>
+        <v>63.3089753046057</v>
       </c>
       <c r="M2" t="n">
-        <v>50.41789388338485</v>
+        <v>50.41789388338481</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>19.05363706853596</v>
+        <v>19.05363706853592</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.7074378464936</v>
+        <v>132.7074378464938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.9609922607001</v>
+        <v>632.9609922607003</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>240.7340666298172</v>
+        <v>240.7340666298171</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.7315483625597</v>
+        <v>438.7315483625604</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>63.30897530460565</v>
+        <v>63.30897530460564</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.29728773460569</v>
+        <v>39.29728773460567</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.9609922607001</v>
+        <v>632.9609922607003</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="C11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="D11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="E11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="F11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="G11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="I11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>56.21960778935723</v>
+        <v>56.21960778935718</v>
       </c>
       <c r="S11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="T11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="U11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="V11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="W11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="X11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-2.913225216616411e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.613287612504791e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="C13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="D13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="E13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="F13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="G13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="H13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="I13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="J13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="K13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="L13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="M13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="N13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="O13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="P13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="R13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="S13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="T13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="U13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="V13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="W13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="X13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.21960778935723</v>
+        <v>56.21960778935721</v>
       </c>
       <c r="S14" t="n">
         <v>102.6062630392114</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.21960778935723</v>
+        <v>56.21960778935721</v>
       </c>
       <c r="S17" t="n">
         <v>165.915238343817</v>
@@ -28652,10 +28652,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28737,13 +28737,13 @@
         <v>165.915238343817</v>
       </c>
       <c r="H19" t="n">
-        <v>1.802575834195153</v>
+        <v>155.6512486994391</v>
       </c>
       <c r="I19" t="n">
-        <v>135.564354864886</v>
+        <v>135.5643548648859</v>
       </c>
       <c r="J19" t="n">
-        <v>42.53755564042505</v>
+        <v>42.53755564042504</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.11314481802732</v>
+        <v>18.11314481802731</v>
       </c>
       <c r="R19" t="n">
         <v>137.2663834473597</v>
@@ -28776,7 +28776,7 @@
         <v>165.915238343817</v>
       </c>
       <c r="U19" t="n">
-        <v>165.915238343817</v>
+        <v>12.06656547857284</v>
       </c>
       <c r="V19" t="n">
         <v>165.915238343817</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>56.21960778935723</v>
+        <v>56.21960778935721</v>
       </c>
       <c r="S20" t="n">
         <v>165.915238343817</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28977,10 +28977,10 @@
         <v>155.6512486994391</v>
       </c>
       <c r="I22" t="n">
-        <v>135.564354864886</v>
+        <v>135.5643548648859</v>
       </c>
       <c r="J22" t="n">
-        <v>42.53755564042505</v>
+        <v>42.53755564042504</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.11314481802732</v>
+        <v>18.11314481802731</v>
       </c>
       <c r="R22" t="n">
-        <v>137.2663834473597</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>12.06656547857327</v>
+        <v>149.3329489259327</v>
       </c>
       <c r="T22" t="n">
         <v>165.915238343817</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.21960778935723</v>
+        <v>56.21960778935718</v>
       </c>
       <c r="S23" t="n">
         <v>165.915238343817</v>
@@ -29208,16 +29208,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>12.06656547857307</v>
+        <v>165.915238343817</v>
       </c>
       <c r="H25" t="n">
         <v>155.6512486994391</v>
       </c>
       <c r="I25" t="n">
-        <v>135.564354864886</v>
+        <v>135.5643548648859</v>
       </c>
       <c r="J25" t="n">
-        <v>42.53755564042505</v>
+        <v>42.53755564042503</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,16 +29238,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.11314481802732</v>
+        <v>18.11314481802729</v>
       </c>
       <c r="R25" t="n">
-        <v>137.2663834473597</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>165.915238343817</v>
       </c>
       <c r="T25" t="n">
-        <v>165.915238343817</v>
+        <v>149.3329489259325</v>
       </c>
       <c r="U25" t="n">
         <v>165.915238343817</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="C26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="D26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="E26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="F26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="G26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="I26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="J26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="K26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="L26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="M26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="N26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="O26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="P26" t="n">
-        <v>102.6062630392113</v>
+        <v>4.439624769311308</v>
       </c>
       <c r="Q26" t="n">
-        <v>4.439624769313582</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="R26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="S26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="T26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="U26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="V26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="W26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="X26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="C28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="D28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="E28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="F28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="G28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="H28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="I28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="J28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="K28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="L28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="M28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="N28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="O28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="P28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="R28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="S28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="T28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="U28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="V28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="W28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="X28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.6062630392113</v>
+        <v>102.6062630392114</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="C29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="D29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="E29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="F29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="G29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="I29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="J29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="K29" t="n">
-        <v>102.6062630392114</v>
+        <v>50.82628001916441</v>
       </c>
       <c r="L29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="M29" t="n">
-        <v>4.439624769313809</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="N29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="O29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="P29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="R29" t="n">
-        <v>102.6062630392114</v>
+        <v>56.21960778935713</v>
       </c>
       <c r="S29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="T29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="U29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="V29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="W29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="X29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="Y29" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="C31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="D31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="E31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="F31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="G31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="H31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="I31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="J31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="K31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="L31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="M31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="N31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="O31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="P31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="R31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="S31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="T31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="U31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="V31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="W31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="X31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392113</v>
       </c>
     </row>
     <row r="32">
@@ -29779,13 +29779,13 @@
         <v>102.6062630392114</v>
       </c>
       <c r="M32" t="n">
-        <v>102.6062630392114</v>
+        <v>4.439624769311308</v>
       </c>
       <c r="N32" t="n">
         <v>102.6062630392114</v>
       </c>
       <c r="O32" t="n">
-        <v>4.439624769313809</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="P32" t="n">
         <v>102.6062630392114</v>
@@ -29934,13 +29934,13 @@
         <v>102.6062630392114</v>
       </c>
       <c r="L34" t="n">
-        <v>102.6062630392114</v>
+        <v>102.6062630392096</v>
       </c>
       <c r="M34" t="n">
         <v>102.6062630392114</v>
       </c>
       <c r="N34" t="n">
-        <v>102.6062630392111</v>
+        <v>102.6062630392114</v>
       </c>
       <c r="O34" t="n">
         <v>102.6062630392114</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.21960778935723</v>
+        <v>56.21960778935718</v>
       </c>
       <c r="S35" t="n">
         <v>153.0241569225962</v>
@@ -30162,10 +30162,10 @@
         <v>153.0241569225962</v>
       </c>
       <c r="I37" t="n">
-        <v>135.564354864886</v>
+        <v>135.5643548648859</v>
       </c>
       <c r="J37" t="n">
-        <v>42.53755564042505</v>
+        <v>42.53755564042503</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.11314481802732</v>
+        <v>18.11314481802729</v>
       </c>
       <c r="R37" t="n">
         <v>137.2663834473597</v>
       </c>
       <c r="S37" t="n">
-        <v>130.7133900464033</v>
+        <v>153.0241569225962</v>
       </c>
       <c r="T37" t="n">
         <v>153.0241569225962</v>
@@ -30210,7 +30210,7 @@
         <v>153.0241569225962</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.0241569225962</v>
+        <v>130.7133900464028</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>56.21960778935723</v>
+        <v>56.21960778935718</v>
       </c>
       <c r="S38" t="n">
         <v>153.0241569225962</v>
@@ -30399,10 +30399,10 @@
         <v>153.0241569225962</v>
       </c>
       <c r="I40" t="n">
-        <v>135.564354864886</v>
+        <v>135.5643548648859</v>
       </c>
       <c r="J40" t="n">
-        <v>42.53755564042505</v>
+        <v>42.53755564042503</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.11314481802732</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.2663834473597</v>
@@ -30432,7 +30432,7 @@
         <v>153.0241569225962</v>
       </c>
       <c r="T40" t="n">
-        <v>153.0241569225962</v>
+        <v>148.8265348644301</v>
       </c>
       <c r="U40" t="n">
         <v>153.0241569225962</v>
@@ -30447,7 +30447,7 @@
         <v>153.0241569225962</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.7133900464032</v>
+        <v>153.0241569225962</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.21960778935723</v>
+        <v>56.21960778935718</v>
       </c>
       <c r="S41" t="n">
         <v>132.7805062565265</v>
@@ -30639,10 +30639,10 @@
         <v>132.7805062565265</v>
       </c>
       <c r="J43" t="n">
-        <v>42.53755564042505</v>
+        <v>42.53755564042503</v>
       </c>
       <c r="K43" t="n">
-        <v>2.047950084107732</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30654,13 +30654,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>132.7805062565265</v>
+        <v>20.16109490213523</v>
       </c>
       <c r="P43" t="n">
         <v>132.7805062565265</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.11314481802732</v>
+        <v>132.7805062565265</v>
       </c>
       <c r="R43" t="n">
         <v>132.7805062565265</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="C44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="D44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="E44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="F44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="G44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="H44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="I44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>56.21960778935723</v>
+        <v>56.21960778935718</v>
       </c>
       <c r="S44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="T44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="U44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="V44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="W44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="X44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="C46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="D46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="E46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="F46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="G46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="H46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="I46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="J46" t="n">
-        <v>44.58550572453284</v>
+        <v>42.53755564042503</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="M46" t="n">
-        <v>132.7805062565265</v>
+        <v>2.047950084108834</v>
       </c>
       <c r="N46" t="n">
-        <v>132.7805062565265</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.11314481802732</v>
+        <v>18.11314481802729</v>
       </c>
       <c r="R46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="S46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="T46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="U46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="V46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="W46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="X46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.7805062565265</v>
+        <v>132.7805062565264</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.5334972375738439</v>
       </c>
       <c r="H11" t="n">
-        <v>5.463678584303122</v>
+        <v>5.46367858430313</v>
       </c>
       <c r="I11" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156564</v>
       </c>
       <c r="J11" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753308</v>
       </c>
       <c r="K11" t="n">
-        <v>67.8628492340338</v>
+        <v>67.8628492340339</v>
       </c>
       <c r="L11" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843444</v>
       </c>
       <c r="M11" t="n">
-        <v>93.67744681713815</v>
+        <v>93.67744681713829</v>
       </c>
       <c r="N11" t="n">
-        <v>95.19324584339483</v>
+        <v>95.19324584339498</v>
       </c>
       <c r="O11" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727006</v>
       </c>
       <c r="P11" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466578</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405248</v>
       </c>
       <c r="R11" t="n">
-        <v>33.51229584974795</v>
+        <v>33.512295849748</v>
       </c>
       <c r="S11" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121398</v>
       </c>
       <c r="T11" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479503</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.0426797790059075</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.2854461870660432</v>
       </c>
       <c r="H12" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716786</v>
       </c>
       <c r="I12" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405436</v>
       </c>
       <c r="J12" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293701</v>
       </c>
       <c r="K12" t="n">
-        <v>46.09329942636183</v>
+        <v>46.0932994263619</v>
       </c>
       <c r="L12" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519505</v>
       </c>
       <c r="M12" t="n">
-        <v>72.32555362633899</v>
+        <v>72.3255536263391</v>
       </c>
       <c r="N12" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942675</v>
       </c>
       <c r="O12" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338441</v>
       </c>
       <c r="P12" t="n">
-        <v>54.50770216000602</v>
+        <v>54.5077021600061</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758826</v>
       </c>
       <c r="R12" t="n">
-        <v>17.72270273731098</v>
+        <v>17.72270273731101</v>
       </c>
       <c r="S12" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055668</v>
       </c>
       <c r="T12" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989884</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.01877935441223969</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772838</v>
       </c>
       <c r="H13" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079852</v>
       </c>
       <c r="I13" t="n">
-        <v>7.196659088462309</v>
+        <v>7.19665908846232</v>
       </c>
       <c r="J13" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954397</v>
       </c>
       <c r="K13" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472443</v>
       </c>
       <c r="L13" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346819</v>
       </c>
       <c r="M13" t="n">
-        <v>37.51269427519816</v>
+        <v>37.51269427519822</v>
       </c>
       <c r="N13" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032837</v>
       </c>
       <c r="O13" t="n">
-        <v>33.82516792848004</v>
+        <v>33.82516792848009</v>
       </c>
       <c r="P13" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114348</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482056</v>
       </c>
       <c r="R13" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440587</v>
       </c>
       <c r="S13" t="n">
-        <v>4.170494399208657</v>
+        <v>4.170494399208663</v>
       </c>
       <c r="T13" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785186</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.5334972375738436</v>
       </c>
       <c r="H14" t="n">
-        <v>5.463678584303122</v>
+        <v>5.463678584303127</v>
       </c>
       <c r="I14" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156563</v>
       </c>
       <c r="J14" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753305</v>
       </c>
       <c r="K14" t="n">
-        <v>67.8628492340338</v>
+        <v>67.86284923403386</v>
       </c>
       <c r="L14" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843439</v>
       </c>
       <c r="M14" t="n">
-        <v>93.67744681713815</v>
+        <v>93.67744681713823</v>
       </c>
       <c r="N14" t="n">
-        <v>95.19324584339483</v>
+        <v>95.19324584339492</v>
       </c>
       <c r="O14" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727001</v>
       </c>
       <c r="P14" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466574</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405244</v>
       </c>
       <c r="R14" t="n">
-        <v>33.51229584974795</v>
+        <v>33.51229584974798</v>
       </c>
       <c r="S14" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121397</v>
       </c>
       <c r="T14" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479501</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.04267977900590748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.285446187066043</v>
       </c>
       <c r="H15" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716785</v>
       </c>
       <c r="I15" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405431</v>
       </c>
       <c r="J15" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293699</v>
       </c>
       <c r="K15" t="n">
-        <v>46.09329942636183</v>
+        <v>46.09329942636187</v>
       </c>
       <c r="L15" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519501</v>
       </c>
       <c r="M15" t="n">
-        <v>72.32555362633899</v>
+        <v>72.32555362633906</v>
       </c>
       <c r="N15" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942669</v>
       </c>
       <c r="O15" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338437</v>
       </c>
       <c r="P15" t="n">
-        <v>54.50770216000602</v>
+        <v>54.50770216000606</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758823</v>
       </c>
       <c r="R15" t="n">
-        <v>17.72270273731098</v>
+        <v>17.722702737311</v>
       </c>
       <c r="S15" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055664</v>
       </c>
       <c r="T15" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989884</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.01877935441223968</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772837</v>
       </c>
       <c r="H16" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079851</v>
       </c>
       <c r="I16" t="n">
-        <v>7.196659088462309</v>
+        <v>7.196659088462315</v>
       </c>
       <c r="J16" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954396</v>
       </c>
       <c r="K16" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472441</v>
       </c>
       <c r="L16" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346817</v>
       </c>
       <c r="M16" t="n">
-        <v>37.51269427519816</v>
+        <v>37.5126942751982</v>
       </c>
       <c r="N16" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032835</v>
       </c>
       <c r="O16" t="n">
-        <v>33.82516792848004</v>
+        <v>33.82516792848007</v>
       </c>
       <c r="P16" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114346</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482054</v>
       </c>
       <c r="R16" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440586</v>
       </c>
       <c r="S16" t="n">
-        <v>4.170494399208657</v>
+        <v>4.17049439920866</v>
       </c>
       <c r="T16" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785185</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.5334972375738436</v>
       </c>
       <c r="H17" t="n">
-        <v>5.463678584303122</v>
+        <v>5.463678584303127</v>
       </c>
       <c r="I17" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156563</v>
       </c>
       <c r="J17" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753305</v>
       </c>
       <c r="K17" t="n">
-        <v>67.8628492340338</v>
+        <v>67.86284923403386</v>
       </c>
       <c r="L17" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843439</v>
       </c>
       <c r="M17" t="n">
-        <v>93.67744681713815</v>
+        <v>93.67744681713823</v>
       </c>
       <c r="N17" t="n">
-        <v>95.19324584339483</v>
+        <v>95.19324584339492</v>
       </c>
       <c r="O17" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727001</v>
       </c>
       <c r="P17" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466574</v>
       </c>
       <c r="Q17" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405244</v>
       </c>
       <c r="R17" t="n">
-        <v>33.51229584974795</v>
+        <v>33.51229584974798</v>
       </c>
       <c r="S17" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121397</v>
       </c>
       <c r="T17" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479501</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.04267977900590748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.285446187066043</v>
       </c>
       <c r="H18" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716785</v>
       </c>
       <c r="I18" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405431</v>
       </c>
       <c r="J18" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293699</v>
       </c>
       <c r="K18" t="n">
-        <v>46.09329942636183</v>
+        <v>46.09329942636187</v>
       </c>
       <c r="L18" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519501</v>
       </c>
       <c r="M18" t="n">
-        <v>72.32555362633899</v>
+        <v>72.32555362633906</v>
       </c>
       <c r="N18" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942669</v>
       </c>
       <c r="O18" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338437</v>
       </c>
       <c r="P18" t="n">
-        <v>54.50770216000602</v>
+        <v>54.50770216000606</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758823</v>
       </c>
       <c r="R18" t="n">
-        <v>17.72270273731098</v>
+        <v>17.722702737311</v>
       </c>
       <c r="S18" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055664</v>
       </c>
       <c r="T18" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989884</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.01877935441223968</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772837</v>
       </c>
       <c r="H19" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079851</v>
       </c>
       <c r="I19" t="n">
-        <v>7.196659088462309</v>
+        <v>7.196659088462315</v>
       </c>
       <c r="J19" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954396</v>
       </c>
       <c r="K19" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472441</v>
       </c>
       <c r="L19" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346817</v>
       </c>
       <c r="M19" t="n">
-        <v>37.51269427519816</v>
+        <v>37.5126942751982</v>
       </c>
       <c r="N19" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032835</v>
       </c>
       <c r="O19" t="n">
-        <v>33.82516792848004</v>
+        <v>33.82516792848007</v>
       </c>
       <c r="P19" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114346</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482054</v>
       </c>
       <c r="R19" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440586</v>
       </c>
       <c r="S19" t="n">
-        <v>4.170494399208657</v>
+        <v>4.17049439920866</v>
       </c>
       <c r="T19" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785185</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.5334972375738436</v>
       </c>
       <c r="H20" t="n">
-        <v>5.463678584303122</v>
+        <v>5.463678584303127</v>
       </c>
       <c r="I20" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156563</v>
       </c>
       <c r="J20" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753305</v>
       </c>
       <c r="K20" t="n">
-        <v>67.8628492340338</v>
+        <v>67.86284923403386</v>
       </c>
       <c r="L20" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843439</v>
       </c>
       <c r="M20" t="n">
-        <v>93.67744681713815</v>
+        <v>93.67744681713823</v>
       </c>
       <c r="N20" t="n">
-        <v>95.19324584339483</v>
+        <v>95.19324584339492</v>
       </c>
       <c r="O20" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727001</v>
       </c>
       <c r="P20" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466574</v>
       </c>
       <c r="Q20" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405244</v>
       </c>
       <c r="R20" t="n">
-        <v>33.51229584974795</v>
+        <v>33.51229584974798</v>
       </c>
       <c r="S20" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121397</v>
       </c>
       <c r="T20" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479501</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.04267977900590748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.285446187066043</v>
       </c>
       <c r="H21" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716785</v>
       </c>
       <c r="I21" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405431</v>
       </c>
       <c r="J21" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293699</v>
       </c>
       <c r="K21" t="n">
-        <v>46.09329942636183</v>
+        <v>46.09329942636187</v>
       </c>
       <c r="L21" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519501</v>
       </c>
       <c r="M21" t="n">
-        <v>72.32555362633899</v>
+        <v>72.32555362633906</v>
       </c>
       <c r="N21" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942669</v>
       </c>
       <c r="O21" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338437</v>
       </c>
       <c r="P21" t="n">
-        <v>54.50770216000602</v>
+        <v>54.50770216000606</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758823</v>
       </c>
       <c r="R21" t="n">
-        <v>17.72270273731098</v>
+        <v>17.722702737311</v>
       </c>
       <c r="S21" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055664</v>
       </c>
       <c r="T21" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989884</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.01877935441223968</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772837</v>
       </c>
       <c r="H22" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079851</v>
       </c>
       <c r="I22" t="n">
-        <v>7.196659088462309</v>
+        <v>7.196659088462315</v>
       </c>
       <c r="J22" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954396</v>
       </c>
       <c r="K22" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472441</v>
       </c>
       <c r="L22" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346817</v>
       </c>
       <c r="M22" t="n">
-        <v>37.51269427519816</v>
+        <v>37.5126942751982</v>
       </c>
       <c r="N22" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032835</v>
       </c>
       <c r="O22" t="n">
-        <v>33.82516792848004</v>
+        <v>33.82516792848007</v>
       </c>
       <c r="P22" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114346</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482054</v>
       </c>
       <c r="R22" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440586</v>
       </c>
       <c r="S22" t="n">
-        <v>4.170494399208657</v>
+        <v>4.17049439920866</v>
       </c>
       <c r="T22" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785185</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.533497237573844</v>
       </c>
       <c r="H23" t="n">
-        <v>5.463678584303122</v>
+        <v>5.463678584303132</v>
       </c>
       <c r="I23" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156564</v>
       </c>
       <c r="J23" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753309</v>
       </c>
       <c r="K23" t="n">
-        <v>67.8628492340338</v>
+        <v>67.86284923403392</v>
       </c>
       <c r="L23" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843447</v>
       </c>
       <c r="M23" t="n">
-        <v>93.67744681713815</v>
+        <v>93.6774468171383</v>
       </c>
       <c r="N23" t="n">
-        <v>95.19324584339483</v>
+        <v>95.193245843395</v>
       </c>
       <c r="O23" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727008</v>
       </c>
       <c r="P23" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466579</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405249</v>
       </c>
       <c r="R23" t="n">
-        <v>33.51229584974795</v>
+        <v>33.51229584974801</v>
       </c>
       <c r="S23" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121398</v>
       </c>
       <c r="T23" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479504</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.04267977900590751</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.2854461870660433</v>
       </c>
       <c r="H24" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716787</v>
       </c>
       <c r="I24" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405438</v>
       </c>
       <c r="J24" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293701</v>
       </c>
       <c r="K24" t="n">
-        <v>46.09329942636183</v>
+        <v>46.09329942636191</v>
       </c>
       <c r="L24" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519506</v>
       </c>
       <c r="M24" t="n">
-        <v>72.32555362633899</v>
+        <v>72.32555362633911</v>
       </c>
       <c r="N24" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942676</v>
       </c>
       <c r="O24" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338442</v>
       </c>
       <c r="P24" t="n">
-        <v>54.50770216000602</v>
+        <v>54.50770216000611</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758826</v>
       </c>
       <c r="R24" t="n">
-        <v>17.72270273731098</v>
+        <v>17.72270273731101</v>
       </c>
       <c r="S24" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055669</v>
       </c>
       <c r="T24" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989885</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.0187793544122397</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772839</v>
       </c>
       <c r="H25" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079853</v>
       </c>
       <c r="I25" t="n">
-        <v>7.196659088462309</v>
+        <v>7.196659088462321</v>
       </c>
       <c r="J25" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954397</v>
       </c>
       <c r="K25" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472443</v>
       </c>
       <c r="L25" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346819</v>
       </c>
       <c r="M25" t="n">
-        <v>37.51269427519816</v>
+        <v>37.51269427519823</v>
       </c>
       <c r="N25" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032839</v>
       </c>
       <c r="O25" t="n">
-        <v>33.82516792848004</v>
+        <v>33.8251679284801</v>
       </c>
       <c r="P25" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114349</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482056</v>
       </c>
       <c r="R25" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440587</v>
       </c>
       <c r="S25" t="n">
-        <v>4.170494399208657</v>
+        <v>4.170494399208664</v>
       </c>
       <c r="T25" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785186</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.533497237573844</v>
       </c>
       <c r="H26" t="n">
-        <v>5.463678584303122</v>
+        <v>5.463678584303132</v>
       </c>
       <c r="I26" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156564</v>
       </c>
       <c r="J26" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753309</v>
       </c>
       <c r="K26" t="n">
-        <v>67.8628492340338</v>
+        <v>67.86284923403392</v>
       </c>
       <c r="L26" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843447</v>
       </c>
       <c r="M26" t="n">
-        <v>93.67744681713815</v>
+        <v>93.6774468171383</v>
       </c>
       <c r="N26" t="n">
-        <v>95.19324584339483</v>
+        <v>95.193245843395</v>
       </c>
       <c r="O26" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727008</v>
       </c>
       <c r="P26" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466579</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405249</v>
       </c>
       <c r="R26" t="n">
-        <v>33.51229584974795</v>
+        <v>33.51229584974801</v>
       </c>
       <c r="S26" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121398</v>
       </c>
       <c r="T26" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479504</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.04267977900590751</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.2854461870660433</v>
       </c>
       <c r="H27" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716787</v>
       </c>
       <c r="I27" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405438</v>
       </c>
       <c r="J27" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293701</v>
       </c>
       <c r="K27" t="n">
-        <v>46.09329942636183</v>
+        <v>46.09329942636191</v>
       </c>
       <c r="L27" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519506</v>
       </c>
       <c r="M27" t="n">
-        <v>72.32555362633899</v>
+        <v>72.32555362633911</v>
       </c>
       <c r="N27" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942676</v>
       </c>
       <c r="O27" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338442</v>
       </c>
       <c r="P27" t="n">
-        <v>54.50770216000602</v>
+        <v>54.50770216000611</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758826</v>
       </c>
       <c r="R27" t="n">
-        <v>17.72270273731098</v>
+        <v>17.72270273731101</v>
       </c>
       <c r="S27" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055669</v>
       </c>
       <c r="T27" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989885</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.0187793544122397</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772839</v>
       </c>
       <c r="H28" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079853</v>
       </c>
       <c r="I28" t="n">
-        <v>7.196659088462309</v>
+        <v>7.196659088462321</v>
       </c>
       <c r="J28" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954397</v>
       </c>
       <c r="K28" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472443</v>
       </c>
       <c r="L28" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346819</v>
       </c>
       <c r="M28" t="n">
-        <v>37.51269427519816</v>
+        <v>37.51269427519823</v>
       </c>
       <c r="N28" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032839</v>
       </c>
       <c r="O28" t="n">
-        <v>33.82516792848004</v>
+        <v>33.8251679284801</v>
       </c>
       <c r="P28" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114349</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482056</v>
       </c>
       <c r="R28" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440587</v>
       </c>
       <c r="S28" t="n">
-        <v>4.170494399208657</v>
+        <v>4.170494399208664</v>
       </c>
       <c r="T28" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785186</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5334972375738429</v>
+        <v>0.5334972375738448</v>
       </c>
       <c r="H29" t="n">
-        <v>5.463678584303119</v>
+        <v>5.46367858430314</v>
       </c>
       <c r="I29" t="n">
-        <v>20.5676522515656</v>
+        <v>20.56765225156567</v>
       </c>
       <c r="J29" t="n">
-        <v>45.27991116753299</v>
+        <v>45.27991116753316</v>
       </c>
       <c r="K29" t="n">
-        <v>67.86284923403377</v>
+        <v>67.86284923403402</v>
       </c>
       <c r="L29" t="n">
-        <v>84.18986531843429</v>
+        <v>84.18986531843458</v>
       </c>
       <c r="M29" t="n">
-        <v>93.6774468171381</v>
+        <v>93.67744681713845</v>
       </c>
       <c r="N29" t="n">
-        <v>95.19324584339479</v>
+        <v>95.19324584339515</v>
       </c>
       <c r="O29" t="n">
-        <v>89.88828268726989</v>
+        <v>89.88828268727022</v>
       </c>
       <c r="P29" t="n">
-        <v>76.71756963466564</v>
+        <v>76.71756963466591</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.61169981405236</v>
+        <v>57.61169981405258</v>
       </c>
       <c r="R29" t="n">
-        <v>33.51229584974794</v>
+        <v>33.51229584974806</v>
       </c>
       <c r="S29" t="n">
-        <v>12.15706830121396</v>
+        <v>12.157068301214</v>
       </c>
       <c r="T29" t="n">
-        <v>2.335384157479498</v>
+        <v>2.335384157479507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04267977900590742</v>
+        <v>0.04267977900590758</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2854461870660427</v>
+        <v>0.2854461870660437</v>
       </c>
       <c r="H30" t="n">
-        <v>2.756809227716781</v>
+        <v>2.756809227716791</v>
       </c>
       <c r="I30" t="n">
-        <v>9.827862142405419</v>
+        <v>9.827862142405454</v>
       </c>
       <c r="J30" t="n">
-        <v>26.96840489293696</v>
+        <v>26.96840489293706</v>
       </c>
       <c r="K30" t="n">
-        <v>46.09329942636182</v>
+        <v>46.09329942636198</v>
       </c>
       <c r="L30" t="n">
-        <v>61.97812934519493</v>
+        <v>61.97812934519516</v>
       </c>
       <c r="M30" t="n">
-        <v>72.32555362633896</v>
+        <v>72.32555362633923</v>
       </c>
       <c r="N30" t="n">
-        <v>74.2397958194266</v>
+        <v>74.23979581942687</v>
       </c>
       <c r="O30" t="n">
-        <v>67.91490925338428</v>
+        <v>67.91490925338454</v>
       </c>
       <c r="P30" t="n">
-        <v>54.507702160006</v>
+        <v>54.5077021600062</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.43695538758818</v>
+        <v>36.43695538758832</v>
       </c>
       <c r="R30" t="n">
-        <v>17.72270273731097</v>
+        <v>17.72270273731104</v>
       </c>
       <c r="S30" t="n">
-        <v>5.302037729055657</v>
+        <v>5.302037729055677</v>
       </c>
       <c r="T30" t="n">
-        <v>1.150548446989882</v>
+        <v>1.150548446989886</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.01877935441223973</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2393084944772834</v>
+        <v>0.2393084944772843</v>
       </c>
       <c r="H31" t="n">
-        <v>2.127670069079848</v>
+        <v>2.127670069079856</v>
       </c>
       <c r="I31" t="n">
-        <v>7.196659088462305</v>
+        <v>7.196659088462332</v>
       </c>
       <c r="J31" t="n">
-        <v>16.91911055954393</v>
+        <v>16.919110559544</v>
       </c>
       <c r="K31" t="n">
-        <v>27.80329599472437</v>
+        <v>27.80329599472447</v>
       </c>
       <c r="L31" t="n">
-        <v>35.57864653346812</v>
+        <v>35.57864653346824</v>
       </c>
       <c r="M31" t="n">
-        <v>37.51269427519815</v>
+        <v>37.51269427519829</v>
       </c>
       <c r="N31" t="n">
-        <v>36.6207262503283</v>
+        <v>36.62072625032844</v>
       </c>
       <c r="O31" t="n">
-        <v>33.82516792848003</v>
+        <v>33.82516792848016</v>
       </c>
       <c r="P31" t="n">
-        <v>28.94327464114343</v>
+        <v>28.94327464114353</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.03882311482052</v>
+        <v>20.03882311482059</v>
       </c>
       <c r="R31" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440589</v>
       </c>
       <c r="S31" t="n">
-        <v>4.170494399208655</v>
+        <v>4.17049439920867</v>
       </c>
       <c r="T31" t="n">
-        <v>1.022499930948392</v>
+        <v>1.022499930948396</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.533497237573844</v>
       </c>
       <c r="H32" t="n">
-        <v>5.463678584303122</v>
+        <v>5.463678584303132</v>
       </c>
       <c r="I32" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156564</v>
       </c>
       <c r="J32" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753309</v>
       </c>
       <c r="K32" t="n">
-        <v>67.8628492340338</v>
+        <v>67.86284923403392</v>
       </c>
       <c r="L32" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843447</v>
       </c>
       <c r="M32" t="n">
-        <v>93.67744681713815</v>
+        <v>93.6774468171383</v>
       </c>
       <c r="N32" t="n">
-        <v>95.19324584339483</v>
+        <v>95.193245843395</v>
       </c>
       <c r="O32" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727008</v>
       </c>
       <c r="P32" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466579</v>
       </c>
       <c r="Q32" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405249</v>
       </c>
       <c r="R32" t="n">
-        <v>33.51229584974795</v>
+        <v>33.51229584974801</v>
       </c>
       <c r="S32" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121398</v>
       </c>
       <c r="T32" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479504</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.04267977900590751</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.2854461870660433</v>
       </c>
       <c r="H33" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716787</v>
       </c>
       <c r="I33" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405438</v>
       </c>
       <c r="J33" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293701</v>
       </c>
       <c r="K33" t="n">
-        <v>46.09329942636183</v>
+        <v>46.09329942636191</v>
       </c>
       <c r="L33" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519506</v>
       </c>
       <c r="M33" t="n">
-        <v>72.32555362633899</v>
+        <v>72.32555362633911</v>
       </c>
       <c r="N33" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942676</v>
       </c>
       <c r="O33" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338442</v>
       </c>
       <c r="P33" t="n">
-        <v>54.50770216000602</v>
+        <v>54.50770216000611</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758826</v>
       </c>
       <c r="R33" t="n">
-        <v>17.72270273731098</v>
+        <v>17.72270273731101</v>
       </c>
       <c r="S33" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055669</v>
       </c>
       <c r="T33" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989885</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.0187793544122397</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772839</v>
       </c>
       <c r="H34" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079853</v>
       </c>
       <c r="I34" t="n">
-        <v>7.196659088462309</v>
+        <v>7.196659088462321</v>
       </c>
       <c r="J34" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954397</v>
       </c>
       <c r="K34" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472443</v>
       </c>
       <c r="L34" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346819</v>
       </c>
       <c r="M34" t="n">
-        <v>37.51269427519816</v>
+        <v>37.51269427519823</v>
       </c>
       <c r="N34" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032839</v>
       </c>
       <c r="O34" t="n">
-        <v>33.82516792848004</v>
+        <v>33.8251679284801</v>
       </c>
       <c r="P34" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114349</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482056</v>
       </c>
       <c r="R34" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440587</v>
       </c>
       <c r="S34" t="n">
-        <v>4.170494399208657</v>
+        <v>4.170494399208664</v>
       </c>
       <c r="T34" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785186</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.533497237573844</v>
       </c>
       <c r="H35" t="n">
-        <v>5.463678584303122</v>
+        <v>5.463678584303132</v>
       </c>
       <c r="I35" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156564</v>
       </c>
       <c r="J35" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753309</v>
       </c>
       <c r="K35" t="n">
-        <v>67.8628492340338</v>
+        <v>67.86284923403392</v>
       </c>
       <c r="L35" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843447</v>
       </c>
       <c r="M35" t="n">
-        <v>93.67744681713815</v>
+        <v>93.6774468171383</v>
       </c>
       <c r="N35" t="n">
-        <v>95.19324584339483</v>
+        <v>95.193245843395</v>
       </c>
       <c r="O35" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727008</v>
       </c>
       <c r="P35" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466579</v>
       </c>
       <c r="Q35" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405249</v>
       </c>
       <c r="R35" t="n">
-        <v>33.51229584974795</v>
+        <v>33.51229584974801</v>
       </c>
       <c r="S35" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121398</v>
       </c>
       <c r="T35" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479504</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.04267977900590751</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.2854461870660433</v>
       </c>
       <c r="H36" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716787</v>
       </c>
       <c r="I36" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405438</v>
       </c>
       <c r="J36" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293701</v>
       </c>
       <c r="K36" t="n">
-        <v>46.09329942636183</v>
+        <v>46.09329942636191</v>
       </c>
       <c r="L36" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519506</v>
       </c>
       <c r="M36" t="n">
-        <v>72.32555362633899</v>
+        <v>72.32555362633911</v>
       </c>
       <c r="N36" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942676</v>
       </c>
       <c r="O36" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338442</v>
       </c>
       <c r="P36" t="n">
-        <v>54.50770216000602</v>
+        <v>54.50770216000611</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758826</v>
       </c>
       <c r="R36" t="n">
-        <v>17.72270273731098</v>
+        <v>17.72270273731101</v>
       </c>
       <c r="S36" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055669</v>
       </c>
       <c r="T36" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989885</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.0187793544122397</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772839</v>
       </c>
       <c r="H37" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079853</v>
       </c>
       <c r="I37" t="n">
-        <v>7.196659088462309</v>
+        <v>7.196659088462321</v>
       </c>
       <c r="J37" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954397</v>
       </c>
       <c r="K37" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472443</v>
       </c>
       <c r="L37" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346819</v>
       </c>
       <c r="M37" t="n">
-        <v>37.51269427519816</v>
+        <v>37.51269427519823</v>
       </c>
       <c r="N37" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032839</v>
       </c>
       <c r="O37" t="n">
-        <v>33.82516792848004</v>
+        <v>33.8251679284801</v>
       </c>
       <c r="P37" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114349</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482056</v>
       </c>
       <c r="R37" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440587</v>
       </c>
       <c r="S37" t="n">
-        <v>4.170494399208657</v>
+        <v>4.170494399208664</v>
       </c>
       <c r="T37" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785186</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.533497237573844</v>
       </c>
       <c r="H38" t="n">
-        <v>5.463678584303122</v>
+        <v>5.463678584303132</v>
       </c>
       <c r="I38" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156564</v>
       </c>
       <c r="J38" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753309</v>
       </c>
       <c r="K38" t="n">
-        <v>67.8628492340338</v>
+        <v>67.86284923403392</v>
       </c>
       <c r="L38" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843447</v>
       </c>
       <c r="M38" t="n">
-        <v>93.67744681713815</v>
+        <v>93.6774468171383</v>
       </c>
       <c r="N38" t="n">
-        <v>95.19324584339483</v>
+        <v>95.193245843395</v>
       </c>
       <c r="O38" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727008</v>
       </c>
       <c r="P38" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466579</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405249</v>
       </c>
       <c r="R38" t="n">
-        <v>33.51229584974795</v>
+        <v>33.51229584974801</v>
       </c>
       <c r="S38" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121398</v>
       </c>
       <c r="T38" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479504</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.04267977900590751</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.2854461870660433</v>
       </c>
       <c r="H39" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716787</v>
       </c>
       <c r="I39" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405438</v>
       </c>
       <c r="J39" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293701</v>
       </c>
       <c r="K39" t="n">
-        <v>46.09329942636183</v>
+        <v>46.09329942636191</v>
       </c>
       <c r="L39" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519506</v>
       </c>
       <c r="M39" t="n">
-        <v>72.32555362633899</v>
+        <v>72.32555362633911</v>
       </c>
       <c r="N39" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942676</v>
       </c>
       <c r="O39" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338442</v>
       </c>
       <c r="P39" t="n">
-        <v>54.50770216000602</v>
+        <v>54.50770216000611</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758826</v>
       </c>
       <c r="R39" t="n">
-        <v>17.72270273731098</v>
+        <v>17.72270273731101</v>
       </c>
       <c r="S39" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055669</v>
       </c>
       <c r="T39" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989885</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.0187793544122397</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772839</v>
       </c>
       <c r="H40" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079853</v>
       </c>
       <c r="I40" t="n">
-        <v>7.196659088462309</v>
+        <v>7.196659088462321</v>
       </c>
       <c r="J40" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954397</v>
       </c>
       <c r="K40" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472443</v>
       </c>
       <c r="L40" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346819</v>
       </c>
       <c r="M40" t="n">
-        <v>37.51269427519816</v>
+        <v>37.51269427519823</v>
       </c>
       <c r="N40" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032839</v>
       </c>
       <c r="O40" t="n">
-        <v>33.82516792848004</v>
+        <v>33.8251679284801</v>
       </c>
       <c r="P40" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114349</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482056</v>
       </c>
       <c r="R40" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440587</v>
       </c>
       <c r="S40" t="n">
-        <v>4.170494399208657</v>
+        <v>4.170494399208664</v>
       </c>
       <c r="T40" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785186</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.533497237573844</v>
       </c>
       <c r="H41" t="n">
-        <v>5.463678584303122</v>
+        <v>5.463678584303132</v>
       </c>
       <c r="I41" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156564</v>
       </c>
       <c r="J41" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753309</v>
       </c>
       <c r="K41" t="n">
-        <v>67.8628492340338</v>
+        <v>67.86284923403392</v>
       </c>
       <c r="L41" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843447</v>
       </c>
       <c r="M41" t="n">
-        <v>93.67744681713815</v>
+        <v>93.6774468171383</v>
       </c>
       <c r="N41" t="n">
-        <v>95.19324584339483</v>
+        <v>95.193245843395</v>
       </c>
       <c r="O41" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727008</v>
       </c>
       <c r="P41" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466579</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405249</v>
       </c>
       <c r="R41" t="n">
-        <v>33.51229584974795</v>
+        <v>33.51229584974801</v>
       </c>
       <c r="S41" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121398</v>
       </c>
       <c r="T41" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479504</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.04267977900590751</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.2854461870660433</v>
       </c>
       <c r="H42" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716787</v>
       </c>
       <c r="I42" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405438</v>
       </c>
       <c r="J42" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293701</v>
       </c>
       <c r="K42" t="n">
-        <v>46.09329942636183</v>
+        <v>46.09329942636191</v>
       </c>
       <c r="L42" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519506</v>
       </c>
       <c r="M42" t="n">
-        <v>72.32555362633899</v>
+        <v>72.32555362633911</v>
       </c>
       <c r="N42" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942676</v>
       </c>
       <c r="O42" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338442</v>
       </c>
       <c r="P42" t="n">
-        <v>54.50770216000602</v>
+        <v>54.50770216000611</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758826</v>
       </c>
       <c r="R42" t="n">
-        <v>17.72270273731098</v>
+        <v>17.72270273731101</v>
       </c>
       <c r="S42" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055669</v>
       </c>
       <c r="T42" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989885</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.0187793544122397</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772839</v>
       </c>
       <c r="H43" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079853</v>
       </c>
       <c r="I43" t="n">
-        <v>7.196659088462309</v>
+        <v>7.196659088462321</v>
       </c>
       <c r="J43" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954397</v>
       </c>
       <c r="K43" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472443</v>
       </c>
       <c r="L43" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346819</v>
       </c>
       <c r="M43" t="n">
-        <v>37.51269427519816</v>
+        <v>37.51269427519823</v>
       </c>
       <c r="N43" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032839</v>
       </c>
       <c r="O43" t="n">
-        <v>33.82516792848004</v>
+        <v>33.8251679284801</v>
       </c>
       <c r="P43" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114349</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482056</v>
       </c>
       <c r="R43" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440587</v>
       </c>
       <c r="S43" t="n">
-        <v>4.170494399208657</v>
+        <v>4.170494399208664</v>
       </c>
       <c r="T43" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785186</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5334972375738432</v>
+        <v>0.533497237573844</v>
       </c>
       <c r="H44" t="n">
-        <v>5.463678584303122</v>
+        <v>5.463678584303132</v>
       </c>
       <c r="I44" t="n">
-        <v>20.56765225156561</v>
+        <v>20.56765225156564</v>
       </c>
       <c r="J44" t="n">
-        <v>45.27991116753301</v>
+        <v>45.27991116753309</v>
       </c>
       <c r="K44" t="n">
-        <v>67.8628492340338</v>
+        <v>67.86284923403392</v>
       </c>
       <c r="L44" t="n">
-        <v>84.18986531843431</v>
+        <v>84.18986531843447</v>
       </c>
       <c r="M44" t="n">
-        <v>93.67744681713815</v>
+        <v>93.6774468171383</v>
       </c>
       <c r="N44" t="n">
-        <v>95.19324584339483</v>
+        <v>95.193245843395</v>
       </c>
       <c r="O44" t="n">
-        <v>89.88828268726994</v>
+        <v>89.88828268727008</v>
       </c>
       <c r="P44" t="n">
-        <v>76.71756963466567</v>
+        <v>76.71756963466579</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.61169981405239</v>
+        <v>57.61169981405249</v>
       </c>
       <c r="R44" t="n">
-        <v>33.51229584974795</v>
+        <v>33.51229584974801</v>
       </c>
       <c r="S44" t="n">
-        <v>12.15706830121396</v>
+        <v>12.15706830121398</v>
       </c>
       <c r="T44" t="n">
-        <v>2.3353841574795</v>
+        <v>2.335384157479504</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04267977900590744</v>
+        <v>0.04267977900590751</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2854461870660428</v>
+        <v>0.2854461870660433</v>
       </c>
       <c r="H45" t="n">
-        <v>2.756809227716782</v>
+        <v>2.756809227716787</v>
       </c>
       <c r="I45" t="n">
-        <v>9.827862142405422</v>
+        <v>9.827862142405438</v>
       </c>
       <c r="J45" t="n">
-        <v>26.96840489293697</v>
+        <v>26.96840489293701</v>
       </c>
       <c r="K45" t="n">
-        <v>46.09329942636183</v>
+        <v>46.09329942636191</v>
       </c>
       <c r="L45" t="n">
-        <v>61.97812934519496</v>
+        <v>61.97812934519506</v>
       </c>
       <c r="M45" t="n">
-        <v>72.32555362633899</v>
+        <v>72.32555362633911</v>
       </c>
       <c r="N45" t="n">
-        <v>74.23979581942663</v>
+        <v>74.23979581942676</v>
       </c>
       <c r="O45" t="n">
-        <v>67.91490925338431</v>
+        <v>67.91490925338442</v>
       </c>
       <c r="P45" t="n">
-        <v>54.50770216000602</v>
+        <v>54.50770216000611</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.43695538758821</v>
+        <v>36.43695538758826</v>
       </c>
       <c r="R45" t="n">
-        <v>17.72270273731098</v>
+        <v>17.72270273731101</v>
       </c>
       <c r="S45" t="n">
-        <v>5.30203772905566</v>
+        <v>5.302037729055669</v>
       </c>
       <c r="T45" t="n">
-        <v>1.150548446989883</v>
+        <v>1.150548446989885</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01877935441223966</v>
+        <v>0.0187793544122397</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2393084944772835</v>
+        <v>0.2393084944772839</v>
       </c>
       <c r="H46" t="n">
-        <v>2.127670069079849</v>
+        <v>2.127670069079853</v>
       </c>
       <c r="I46" t="n">
-        <v>7.196659088462309</v>
+        <v>7.196659088462321</v>
       </c>
       <c r="J46" t="n">
-        <v>16.91911055954394</v>
+        <v>16.91911055954397</v>
       </c>
       <c r="K46" t="n">
-        <v>27.80329599472438</v>
+        <v>27.80329599472443</v>
       </c>
       <c r="L46" t="n">
-        <v>35.57864653346813</v>
+        <v>35.57864653346819</v>
       </c>
       <c r="M46" t="n">
-        <v>37.51269427519816</v>
+        <v>37.51269427519823</v>
       </c>
       <c r="N46" t="n">
-        <v>36.62072625032832</v>
+        <v>36.62072625032839</v>
       </c>
       <c r="O46" t="n">
-        <v>33.82516792848004</v>
+        <v>33.8251679284801</v>
       </c>
       <c r="P46" t="n">
-        <v>28.94327464114344</v>
+        <v>28.94327464114349</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.03882311482053</v>
+        <v>20.03882311482056</v>
       </c>
       <c r="R46" t="n">
-        <v>10.76018012440585</v>
+        <v>10.76018012440587</v>
       </c>
       <c r="S46" t="n">
-        <v>4.170494399208657</v>
+        <v>4.170494399208664</v>
       </c>
       <c r="T46" t="n">
-        <v>1.022499930948393</v>
+        <v>1.022499930948394</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01305319060785184</v>
+        <v>0.01305319060785186</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>118.0057134632964</v>
       </c>
       <c r="K11" t="n">
-        <v>310.4288816025012</v>
+        <v>310.4288816025013</v>
       </c>
       <c r="L11" t="n">
-        <v>369.4554292633179</v>
+        <v>251.4497158000217</v>
       </c>
       <c r="M11" t="n">
-        <v>490.8887258606613</v>
+        <v>490.8887258606615</v>
       </c>
       <c r="N11" t="n">
-        <v>477.3461334067441</v>
+        <v>477.3461334067442</v>
       </c>
       <c r="O11" t="n">
-        <v>397.9737215487183</v>
+        <v>397.9737215487185</v>
       </c>
       <c r="P11" t="n">
-        <v>307.1790812064366</v>
+        <v>307.1790812064367</v>
       </c>
       <c r="Q11" t="n">
         <v>152.9978146489383</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>87.83117916880181</v>
       </c>
       <c r="K12" t="n">
         <v>277.9019383760474</v>
       </c>
       <c r="L12" t="n">
-        <v>431.4951446685441</v>
+        <v>431.4951446685442</v>
       </c>
       <c r="M12" t="n">
-        <v>562.258233939699</v>
+        <v>562.2582339396992</v>
       </c>
       <c r="N12" t="n">
-        <v>590.6697413983378</v>
+        <v>590.6697413983379</v>
       </c>
       <c r="O12" t="n">
-        <v>464.0764757020215</v>
+        <v>0.6562166188074906</v>
       </c>
       <c r="P12" t="n">
-        <v>179.8682534526676</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>195.8022379992996</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.0687073987863</v>
+        <v>60.06870739878629</v>
       </c>
       <c r="K13" t="n">
-        <v>164.353183018424</v>
+        <v>164.3531830184241</v>
       </c>
       <c r="L13" t="n">
         <v>239.8082220981942</v>
       </c>
       <c r="M13" t="n">
-        <v>259.3043170392597</v>
+        <v>259.3043170392598</v>
       </c>
       <c r="N13" t="n">
         <v>258.8455163093381</v>
       </c>
       <c r="O13" t="n">
-        <v>235.8896597512163</v>
+        <v>235.8896597512164</v>
       </c>
       <c r="P13" t="n">
         <v>195.1540666986758</v>
@@ -35647,22 +35647,22 @@
         <v>118.0057134632963</v>
       </c>
       <c r="K14" t="n">
-        <v>310.4288816025012</v>
+        <v>310.4288816025013</v>
       </c>
       <c r="L14" t="n">
         <v>435.5892320709053</v>
       </c>
       <c r="M14" t="n">
-        <v>490.8887258606613</v>
+        <v>490.8887258606614</v>
       </c>
       <c r="N14" t="n">
-        <v>477.3461334067441</v>
+        <v>446.2044317847989</v>
       </c>
       <c r="O14" t="n">
-        <v>397.9737215487183</v>
+        <v>397.9737215487185</v>
       </c>
       <c r="P14" t="n">
-        <v>276.0373795844927</v>
+        <v>307.1790812064366</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>87.83117916880175</v>
+        <v>87.83117916880178</v>
       </c>
       <c r="K15" t="n">
         <v>277.9019383760474</v>
@@ -35735,16 +35735,16 @@
         <v>562.258233939699</v>
       </c>
       <c r="N15" t="n">
-        <v>127.2494823151251</v>
+        <v>127.2494823151235</v>
       </c>
       <c r="O15" t="n">
-        <v>464.0764757020215</v>
+        <v>464.0764757020216</v>
       </c>
       <c r="P15" t="n">
-        <v>359.655095367781</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.8022379992995</v>
+        <v>195.8022379992996</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.0687073987863</v>
+        <v>60.06870739878633</v>
       </c>
       <c r="K16" t="n">
-        <v>164.353183018424</v>
+        <v>164.3531830184241</v>
       </c>
       <c r="L16" t="n">
-        <v>239.8082220981941</v>
+        <v>239.8082220981942</v>
       </c>
       <c r="M16" t="n">
-        <v>259.3043170392597</v>
+        <v>259.3043170392598</v>
       </c>
       <c r="N16" t="n">
         <v>258.8455163093381</v>
       </c>
       <c r="O16" t="n">
-        <v>235.8896597512163</v>
+        <v>235.8896597512164</v>
       </c>
       <c r="P16" t="n">
         <v>195.1540666986758</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.49311822118403</v>
+        <v>84.49311822118406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>118.0057134632963</v>
       </c>
       <c r="K17" t="n">
-        <v>244.2950787949156</v>
+        <v>310.4288816025013</v>
       </c>
       <c r="L17" t="n">
-        <v>435.5892320709053</v>
+        <v>251.4497158000221</v>
       </c>
       <c r="M17" t="n">
-        <v>490.8887258606613</v>
+        <v>490.8887258606614</v>
       </c>
       <c r="N17" t="n">
         <v>477.3461334067441</v>
       </c>
       <c r="O17" t="n">
-        <v>397.9737215487183</v>
+        <v>397.9737215487185</v>
       </c>
       <c r="P17" t="n">
         <v>307.1790812064366</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>87.83117916880175</v>
+        <v>87.83117916880178</v>
       </c>
       <c r="K18" t="n">
         <v>277.9019383760474</v>
@@ -35969,16 +35969,16 @@
         <v>431.4951446685441</v>
       </c>
       <c r="M18" t="n">
-        <v>294.6402128557856</v>
+        <v>562.258233939699</v>
       </c>
       <c r="N18" t="n">
-        <v>590.6697413983378</v>
+        <v>323.0517203144234</v>
       </c>
       <c r="O18" t="n">
-        <v>464.0764757020215</v>
+        <v>464.0764757020216</v>
       </c>
       <c r="P18" t="n">
-        <v>359.655095367781</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>61.74691997921268</v>
+        <v>61.74691997921271</v>
       </c>
       <c r="L19" t="n">
         <v>137.2019590589828</v>
@@ -36057,7 +36057,7 @@
         <v>133.283396712005</v>
       </c>
       <c r="P19" t="n">
-        <v>92.54780365946444</v>
+        <v>92.54780365946446</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>118.0057134632963</v>
       </c>
       <c r="K20" t="n">
-        <v>244.2950787949156</v>
+        <v>126.2893653316181</v>
       </c>
       <c r="L20" t="n">
         <v>435.5892320709053</v>
       </c>
       <c r="M20" t="n">
-        <v>490.8887258606613</v>
+        <v>490.8887258606614</v>
       </c>
       <c r="N20" t="n">
         <v>477.3461334067441</v>
       </c>
       <c r="O20" t="n">
-        <v>397.9737215487183</v>
+        <v>397.9737215487185</v>
       </c>
       <c r="P20" t="n">
         <v>307.1790812064366</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>87.83117916880178</v>
       </c>
       <c r="K21" t="n">
         <v>277.9019383760474</v>
       </c>
       <c r="L21" t="n">
-        <v>431.4951446685441</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>562.258233939699</v>
       </c>
       <c r="N21" t="n">
-        <v>215.0806614839269</v>
+        <v>558.7446269836681</v>
       </c>
       <c r="O21" t="n">
-        <v>464.0764757020215</v>
+        <v>464.0764757020216</v>
       </c>
       <c r="P21" t="n">
-        <v>359.655095367781</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.8022379992995</v>
+        <v>195.8022379992996</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>61.74691997921268</v>
+        <v>61.74691997921271</v>
       </c>
       <c r="L22" t="n">
         <v>137.2019590589828</v>
@@ -36294,7 +36294,7 @@
         <v>133.283396712005</v>
       </c>
       <c r="P22" t="n">
-        <v>92.54780365946444</v>
+        <v>92.54780365946446</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>118.0057134632963</v>
+        <v>118.0057134632964</v>
       </c>
       <c r="K23" t="n">
-        <v>126.2893653316193</v>
+        <v>310.4288816025013</v>
       </c>
       <c r="L23" t="n">
-        <v>435.5892320709053</v>
+        <v>435.5892320709054</v>
       </c>
       <c r="M23" t="n">
-        <v>490.8887258606613</v>
+        <v>490.8887258606615</v>
       </c>
       <c r="N23" t="n">
-        <v>477.3461334067441</v>
+        <v>477.3461334067442</v>
       </c>
       <c r="O23" t="n">
-        <v>397.9737215487183</v>
+        <v>397.9737215487185</v>
       </c>
       <c r="P23" t="n">
-        <v>307.1790812064366</v>
+        <v>123.0395649355541</v>
       </c>
       <c r="Q23" t="n">
         <v>152.9978146489383</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>87.83117916880181</v>
       </c>
       <c r="K24" t="n">
         <v>277.9019383760474</v>
       </c>
       <c r="L24" t="n">
-        <v>431.4951446685441</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>562.258233939699</v>
+        <v>562.2582339396992</v>
       </c>
       <c r="N24" t="n">
-        <v>215.080661483926</v>
+        <v>590.6697413983379</v>
       </c>
       <c r="O24" t="n">
-        <v>464.0764757020215</v>
+        <v>464.0764757020216</v>
       </c>
       <c r="P24" t="n">
-        <v>359.655095367781</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q24" t="n">
-        <v>195.8022379992995</v>
+        <v>163.8771235846306</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>61.74691997921268</v>
+        <v>61.74691997921273</v>
       </c>
       <c r="L25" t="n">
-        <v>137.2019590589828</v>
+        <v>137.2019590589829</v>
       </c>
       <c r="M25" t="n">
         <v>156.6980540000484</v>
@@ -36531,7 +36531,7 @@
         <v>133.283396712005</v>
       </c>
       <c r="P25" t="n">
-        <v>92.54780365946444</v>
+        <v>92.54780365946449</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.6119765025076</v>
+        <v>220.6119765025077</v>
       </c>
       <c r="K26" t="n">
-        <v>413.0351446417126</v>
+        <v>413.0351446417127</v>
       </c>
       <c r="L26" t="n">
-        <v>538.1954951101166</v>
+        <v>538.1954951101168</v>
       </c>
       <c r="M26" t="n">
-        <v>593.4949888998726</v>
+        <v>593.4949888998729</v>
       </c>
       <c r="N26" t="n">
-        <v>579.9523964459554</v>
+        <v>579.9523964459556</v>
       </c>
       <c r="O26" t="n">
-        <v>500.5799845879297</v>
+        <v>500.5799845879299</v>
       </c>
       <c r="P26" t="n">
-        <v>409.7853442456479</v>
+        <v>311.618705975748</v>
       </c>
       <c r="Q26" t="n">
-        <v>157.4374394182518</v>
+        <v>255.6040776881497</v>
       </c>
       <c r="R26" t="n">
-        <v>46.38665524985411</v>
+        <v>46.38665524985418</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>277.9019383760474</v>
       </c>
       <c r="L27" t="n">
-        <v>431.4951446685441</v>
+        <v>431.4951446685442</v>
       </c>
       <c r="M27" t="n">
-        <v>562.258233939699</v>
+        <v>186.6691540252864</v>
       </c>
       <c r="N27" t="n">
-        <v>410.8828994832247</v>
+        <v>590.6697413983379</v>
       </c>
       <c r="O27" t="n">
-        <v>464.0764757020215</v>
+        <v>464.0764757020216</v>
       </c>
       <c r="P27" t="n">
-        <v>359.655095367781</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>195.8022379992996</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.06870739878629</v>
+        <v>60.06870739878633</v>
       </c>
       <c r="K28" t="n">
-        <v>164.353183018424</v>
+        <v>164.3531830184241</v>
       </c>
       <c r="L28" t="n">
-        <v>239.8082220981941</v>
+        <v>239.8082220981942</v>
       </c>
       <c r="M28" t="n">
-        <v>259.3043170392597</v>
+        <v>259.3043170392598</v>
       </c>
       <c r="N28" t="n">
         <v>258.8455163093381</v>
       </c>
       <c r="O28" t="n">
-        <v>235.8896597512163</v>
+        <v>235.8896597512164</v>
       </c>
       <c r="P28" t="n">
         <v>195.1540666986758</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.49311822118402</v>
+        <v>84.49311822118406</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.6119765025076</v>
+        <v>220.6119765025078</v>
       </c>
       <c r="K29" t="n">
-        <v>413.0351446417126</v>
+        <v>361.2551616216659</v>
       </c>
       <c r="L29" t="n">
-        <v>538.1954951101166</v>
+        <v>538.1954951101169</v>
       </c>
       <c r="M29" t="n">
-        <v>495.3283506299751</v>
+        <v>593.494988899873</v>
       </c>
       <c r="N29" t="n">
-        <v>579.9523964459554</v>
+        <v>579.9523964459557</v>
       </c>
       <c r="O29" t="n">
-        <v>500.5799845879297</v>
+        <v>500.57998458793</v>
       </c>
       <c r="P29" t="n">
-        <v>409.7853442456479</v>
+        <v>409.7853442456482</v>
       </c>
       <c r="Q29" t="n">
-        <v>255.6040776881496</v>
+        <v>255.6040776881498</v>
       </c>
       <c r="R29" t="n">
-        <v>46.38665524985412</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>277.9019383760473</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>431.4951446685441</v>
+        <v>431.4951446685443</v>
       </c>
       <c r="M30" t="n">
-        <v>186.669154025287</v>
+        <v>562.2582339396993</v>
       </c>
       <c r="N30" t="n">
-        <v>590.6697413983378</v>
+        <v>492.9825998599716</v>
       </c>
       <c r="O30" t="n">
-        <v>464.0764757020215</v>
+        <v>464.0764757020218</v>
       </c>
       <c r="P30" t="n">
-        <v>359.655095367781</v>
+        <v>359.6550953677812</v>
       </c>
       <c r="Q30" t="n">
-        <v>195.8022379992995</v>
+        <v>195.8022379992996</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.0687073987863</v>
+        <v>60.06870739878634</v>
       </c>
       <c r="K31" t="n">
         <v>164.3531830184241</v>
       </c>
       <c r="L31" t="n">
-        <v>239.8082220981941</v>
+        <v>239.8082220981942</v>
       </c>
       <c r="M31" t="n">
         <v>259.3043170392598</v>
       </c>
       <c r="N31" t="n">
-        <v>258.845516309338</v>
+        <v>258.8455163093382</v>
       </c>
       <c r="O31" t="n">
-        <v>235.8896597512163</v>
+        <v>235.8896597512164</v>
       </c>
       <c r="P31" t="n">
         <v>195.1540666986758</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.49311822118403</v>
+        <v>84.49311822118409</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.6119765025076</v>
+        <v>220.6119765025078</v>
       </c>
       <c r="K32" t="n">
-        <v>413.0351446417126</v>
+        <v>413.0351446417127</v>
       </c>
       <c r="L32" t="n">
-        <v>538.1954951101166</v>
+        <v>538.1954951101168</v>
       </c>
       <c r="M32" t="n">
-        <v>593.4949888998726</v>
+        <v>495.3283506299728</v>
       </c>
       <c r="N32" t="n">
-        <v>579.9523964459554</v>
+        <v>579.9523964459556</v>
       </c>
       <c r="O32" t="n">
-        <v>402.4133463180322</v>
+        <v>500.5799845879299</v>
       </c>
       <c r="P32" t="n">
-        <v>409.7853442456479</v>
+        <v>409.7853442456481</v>
       </c>
       <c r="Q32" t="n">
-        <v>255.6040776881496</v>
+        <v>255.6040776881497</v>
       </c>
       <c r="R32" t="n">
-        <v>46.38665524985412</v>
+        <v>46.38665524985422</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.83117916880175</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>277.9019383760474</v>
       </c>
       <c r="L33" t="n">
-        <v>431.4951446685441</v>
+        <v>431.4951446685442</v>
       </c>
       <c r="M33" t="n">
-        <v>562.258233939699</v>
+        <v>562.2582339396992</v>
       </c>
       <c r="N33" t="n">
-        <v>590.6697413983378</v>
+        <v>590.6697413983379</v>
       </c>
       <c r="O33" t="n">
-        <v>196.4584546181069</v>
+        <v>284.2896337869082</v>
       </c>
       <c r="P33" t="n">
-        <v>359.655095367781</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.0687073987863</v>
+        <v>60.06870739878637</v>
       </c>
       <c r="K34" t="n">
-        <v>164.353183018424</v>
+        <v>164.3531830184241</v>
       </c>
       <c r="L34" t="n">
-        <v>239.8082220981942</v>
+        <v>239.8082220981924</v>
       </c>
       <c r="M34" t="n">
-        <v>259.3043170392597</v>
+        <v>259.3043170392598</v>
       </c>
       <c r="N34" t="n">
-        <v>258.8455163093378</v>
+        <v>258.8455163093382</v>
       </c>
       <c r="O34" t="n">
-        <v>235.8896597512163</v>
+        <v>235.8896597512164</v>
       </c>
       <c r="P34" t="n">
-        <v>195.1540666986758</v>
+        <v>195.1540666986759</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.49311822118403</v>
+        <v>84.4931182211841</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.0057134632963</v>
+        <v>118.0057134632964</v>
       </c>
       <c r="K35" t="n">
-        <v>310.4288816025012</v>
+        <v>310.4288816025013</v>
       </c>
       <c r="L35" t="n">
-        <v>435.5892320709053</v>
+        <v>435.5892320709054</v>
       </c>
       <c r="M35" t="n">
-        <v>490.8887258606613</v>
+        <v>490.8887258606615</v>
       </c>
       <c r="N35" t="n">
-        <v>477.3461334067441</v>
+        <v>477.3461334067442</v>
       </c>
       <c r="O35" t="n">
-        <v>397.9737215487183</v>
+        <v>397.9737215487185</v>
       </c>
       <c r="P35" t="n">
-        <v>307.1790812064366</v>
+        <v>307.1790812064367</v>
       </c>
       <c r="Q35" t="n">
         <v>152.9978146489383</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>277.9019383760474</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>431.4951446685441</v>
+        <v>333.808003130179</v>
       </c>
       <c r="M36" t="n">
-        <v>562.258233939699</v>
+        <v>562.2582339396992</v>
       </c>
       <c r="N36" t="n">
-        <v>215.080661483926</v>
+        <v>590.6697413983379</v>
       </c>
       <c r="O36" t="n">
-        <v>464.0764757020215</v>
+        <v>464.0764757020216</v>
       </c>
       <c r="P36" t="n">
-        <v>359.655095367781</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q36" t="n">
-        <v>195.8022379992995</v>
+        <v>195.8022379992996</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>61.74691997921268</v>
+        <v>61.74691997921273</v>
       </c>
       <c r="L37" t="n">
-        <v>137.2019590589828</v>
+        <v>137.2019590589829</v>
       </c>
       <c r="M37" t="n">
         <v>156.6980540000484</v>
@@ -37479,7 +37479,7 @@
         <v>133.283396712005</v>
       </c>
       <c r="P37" t="n">
-        <v>92.54780365946444</v>
+        <v>92.54780365946449</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>118.0057134632963</v>
+        <v>118.0057134632956</v>
       </c>
       <c r="K38" t="n">
-        <v>310.4288816025012</v>
+        <v>310.4288816025013</v>
       </c>
       <c r="L38" t="n">
-        <v>435.5892320709053</v>
+        <v>435.5892320709054</v>
       </c>
       <c r="M38" t="n">
-        <v>490.8887258606613</v>
+        <v>490.8887258606615</v>
       </c>
       <c r="N38" t="n">
-        <v>477.3461334067441</v>
+        <v>477.3461334067442</v>
       </c>
       <c r="O38" t="n">
-        <v>397.9737215487183</v>
+        <v>397.9737215487185</v>
       </c>
       <c r="P38" t="n">
-        <v>307.1790812064366</v>
+        <v>307.1790812064367</v>
       </c>
       <c r="Q38" t="n">
         <v>152.9978146489383</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>87.83117916880181</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>277.9019383760474</v>
       </c>
       <c r="L39" t="n">
-        <v>431.4951446685441</v>
+        <v>431.4951446685442</v>
       </c>
       <c r="M39" t="n">
-        <v>562.258233939699</v>
+        <v>562.2582339396992</v>
       </c>
       <c r="N39" t="n">
-        <v>590.6697413983378</v>
+        <v>127.2494823151235</v>
       </c>
       <c r="O39" t="n">
-        <v>464.0764757020215</v>
+        <v>464.0764757020216</v>
       </c>
       <c r="P39" t="n">
-        <v>359.655095367781</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q39" t="n">
-        <v>98.11509646093474</v>
+        <v>195.8022379992996</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>61.74691997921268</v>
+        <v>61.74691997921273</v>
       </c>
       <c r="L40" t="n">
-        <v>137.2019590589828</v>
+        <v>137.2019590589829</v>
       </c>
       <c r="M40" t="n">
         <v>156.6980540000484</v>
@@ -37716,7 +37716,7 @@
         <v>133.283396712005</v>
       </c>
       <c r="P40" t="n">
-        <v>92.54780365946444</v>
+        <v>92.54780365946449</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.0057134632963</v>
+        <v>118.0057134632964</v>
       </c>
       <c r="K41" t="n">
-        <v>310.4288816025012</v>
+        <v>310.4288816025006</v>
       </c>
       <c r="L41" t="n">
-        <v>435.5892320709053</v>
+        <v>435.5892320709054</v>
       </c>
       <c r="M41" t="n">
-        <v>490.8887258606613</v>
+        <v>490.8887258606615</v>
       </c>
       <c r="N41" t="n">
-        <v>477.3461334067441</v>
+        <v>477.3461334067442</v>
       </c>
       <c r="O41" t="n">
-        <v>397.9737215487183</v>
+        <v>397.9737215487185</v>
       </c>
       <c r="P41" t="n">
-        <v>307.1790812064366</v>
+        <v>307.1790812064367</v>
       </c>
       <c r="Q41" t="n">
         <v>152.9978146489383</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>87.83117916880181</v>
       </c>
       <c r="K42" t="n">
-        <v>277.9019383760474</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>431.4951446685441</v>
+        <v>431.4951446685442</v>
       </c>
       <c r="M42" t="n">
-        <v>186.6691540252871</v>
+        <v>562.2582339396992</v>
       </c>
       <c r="N42" t="n">
-        <v>590.6697413983378</v>
+        <v>590.6697413983379</v>
       </c>
       <c r="O42" t="n">
-        <v>464.0764757020215</v>
+        <v>278.5581549948545</v>
       </c>
       <c r="P42" t="n">
-        <v>359.655095367781</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.8022379992995</v>
+        <v>195.8022379992996</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.79487006332041</v>
+        <v>61.74691997921273</v>
       </c>
       <c r="L43" t="n">
-        <v>137.2019590589828</v>
+        <v>137.2019590589829</v>
       </c>
       <c r="M43" t="n">
         <v>156.6980540000484</v>
@@ -37950,13 +37950,13 @@
         <v>156.2392532701267</v>
       </c>
       <c r="O43" t="n">
-        <v>266.0639029685315</v>
+        <v>153.4444916141402</v>
       </c>
       <c r="P43" t="n">
         <v>225.3283099159909</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>114.6673614384992</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>118.0057134632963</v>
+        <v>118.0057134632964</v>
       </c>
       <c r="K44" t="n">
-        <v>310.4288816025012</v>
+        <v>310.4288816025013</v>
       </c>
       <c r="L44" t="n">
-        <v>435.5892320709053</v>
+        <v>435.5892320709054</v>
       </c>
       <c r="M44" t="n">
-        <v>490.8887258606613</v>
+        <v>490.8887258606615</v>
       </c>
       <c r="N44" t="n">
-        <v>477.3461334067441</v>
+        <v>477.3461334067436</v>
       </c>
       <c r="O44" t="n">
-        <v>397.9737215487183</v>
+        <v>397.9737215487185</v>
       </c>
       <c r="P44" t="n">
-        <v>307.1790812064366</v>
+        <v>307.1790812064367</v>
       </c>
       <c r="Q44" t="n">
         <v>152.9978146489383</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>87.83117916880181</v>
       </c>
       <c r="K45" t="n">
-        <v>261.9679538294164</v>
+        <v>277.9019383760474</v>
       </c>
       <c r="L45" t="n">
-        <v>431.4951446685441</v>
+        <v>431.4951446685442</v>
       </c>
       <c r="M45" t="n">
-        <v>562.258233939699</v>
+        <v>98.83797485648472</v>
       </c>
       <c r="N45" t="n">
-        <v>590.6697413983378</v>
+        <v>590.6697413983379</v>
       </c>
       <c r="O45" t="n">
-        <v>464.0764757020215</v>
+        <v>464.0764757020216</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>359.6550953677811</v>
       </c>
       <c r="Q45" t="n">
-        <v>195.8022379992995</v>
+        <v>195.8022379992996</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.04795008410779</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>61.74691997921268</v>
+        <v>61.74691997921273</v>
       </c>
       <c r="L46" t="n">
-        <v>137.2019590589828</v>
+        <v>269.9824653155092</v>
       </c>
       <c r="M46" t="n">
-        <v>289.4785602565749</v>
+        <v>158.7460040841573</v>
       </c>
       <c r="N46" t="n">
-        <v>289.0197595266532</v>
+        <v>156.2392532701267</v>
       </c>
       <c r="O46" t="n">
-        <v>133.283396712005</v>
+        <v>266.0639029685314</v>
       </c>
       <c r="P46" t="n">
-        <v>92.54780365946444</v>
+        <v>92.54780365946449</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
